--- a/Sprint0/03_Product_Backlog.xlsx
+++ b/Sprint0/03_Product_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO.DESKTOP-3JVCFPR\Desktop\Huella_Carbono\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6109B88F-C07B-429D-A951-460ACFFBAB61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16774EB6-4E87-4260-AD42-358FBE44D8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
   <sheets>
     <sheet name="Release Plan" sheetId="1" r:id="rId1"/>
@@ -54,6 +54,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -676,95 +685,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill patternType="lightUp">
@@ -1535,721 +1456,721 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="2" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7265625" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7265625" customWidth="1"/>
-    <col min="257" max="257" width="7.81640625" customWidth="1"/>
-    <col min="258" max="258" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
+    <col min="257" max="257" width="7.85546875" customWidth="1"/>
+    <col min="258" max="258" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="260" max="260" width="27" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="10.7265625" customWidth="1"/>
-    <col min="263" max="263" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="10.7109375" customWidth="1"/>
+    <col min="263" max="263" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="13" bestFit="1" customWidth="1"/>
     <col min="265" max="265" width="53" bestFit="1" customWidth="1"/>
-    <col min="266" max="266" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="267" max="267" width="14.7265625" customWidth="1"/>
-    <col min="513" max="513" width="7.81640625" customWidth="1"/>
-    <col min="514" max="514" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="266" max="266" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="267" max="267" width="14.7109375" customWidth="1"/>
+    <col min="513" max="513" width="7.85546875" customWidth="1"/>
+    <col min="514" max="514" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="516" max="516" width="27" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="10.7265625" customWidth="1"/>
-    <col min="519" max="519" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="10.7109375" customWidth="1"/>
+    <col min="519" max="519" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="13" bestFit="1" customWidth="1"/>
     <col min="521" max="521" width="53" bestFit="1" customWidth="1"/>
-    <col min="522" max="522" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="523" max="523" width="14.7265625" customWidth="1"/>
-    <col min="769" max="769" width="7.81640625" customWidth="1"/>
-    <col min="770" max="770" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="522" max="522" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="523" max="523" width="14.7109375" customWidth="1"/>
+    <col min="769" max="769" width="7.85546875" customWidth="1"/>
+    <col min="770" max="770" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="772" max="772" width="27" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="10.7265625" customWidth="1"/>
-    <col min="775" max="775" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="10.7109375" customWidth="1"/>
+    <col min="775" max="775" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="13" bestFit="1" customWidth="1"/>
     <col min="777" max="777" width="53" bestFit="1" customWidth="1"/>
-    <col min="778" max="778" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="779" max="779" width="14.7265625" customWidth="1"/>
-    <col min="1025" max="1025" width="7.81640625" customWidth="1"/>
-    <col min="1026" max="1026" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="778" max="778" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="779" max="779" width="14.7109375" customWidth="1"/>
+    <col min="1025" max="1025" width="7.85546875" customWidth="1"/>
+    <col min="1026" max="1026" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="1028" max="1028" width="27" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="10.7265625" customWidth="1"/>
-    <col min="1031" max="1031" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="10.7109375" customWidth="1"/>
+    <col min="1031" max="1031" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="13" bestFit="1" customWidth="1"/>
     <col min="1033" max="1033" width="53" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1034" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="1035" max="1035" width="14.7265625" customWidth="1"/>
-    <col min="1281" max="1281" width="7.81640625" customWidth="1"/>
-    <col min="1282" max="1282" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1034" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1035" max="1035" width="14.7109375" customWidth="1"/>
+    <col min="1281" max="1281" width="7.85546875" customWidth="1"/>
+    <col min="1282" max="1282" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="1284" max="1284" width="27" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="10.7265625" customWidth="1"/>
-    <col min="1287" max="1287" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="10.7109375" customWidth="1"/>
+    <col min="1287" max="1287" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="13" bestFit="1" customWidth="1"/>
     <col min="1289" max="1289" width="53" bestFit="1" customWidth="1"/>
-    <col min="1290" max="1290" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="1291" max="1291" width="14.7265625" customWidth="1"/>
-    <col min="1537" max="1537" width="7.81640625" customWidth="1"/>
-    <col min="1538" max="1538" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="1290" max="1290" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1291" max="1291" width="14.7109375" customWidth="1"/>
+    <col min="1537" max="1537" width="7.85546875" customWidth="1"/>
+    <col min="1538" max="1538" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="1540" max="1540" width="27" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="10.7265625" customWidth="1"/>
-    <col min="1543" max="1543" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="10.7109375" customWidth="1"/>
+    <col min="1543" max="1543" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="13" bestFit="1" customWidth="1"/>
     <col min="1545" max="1545" width="53" bestFit="1" customWidth="1"/>
-    <col min="1546" max="1546" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="1547" max="1547" width="14.7265625" customWidth="1"/>
-    <col min="1793" max="1793" width="7.81640625" customWidth="1"/>
-    <col min="1794" max="1794" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="1546" max="1546" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1547" max="1547" width="14.7109375" customWidth="1"/>
+    <col min="1793" max="1793" width="7.85546875" customWidth="1"/>
+    <col min="1794" max="1794" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="1796" max="1796" width="27" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="10.7265625" customWidth="1"/>
-    <col min="1799" max="1799" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="10.7109375" customWidth="1"/>
+    <col min="1799" max="1799" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="13" bestFit="1" customWidth="1"/>
     <col min="1801" max="1801" width="53" bestFit="1" customWidth="1"/>
-    <col min="1802" max="1802" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="1803" max="1803" width="14.7265625" customWidth="1"/>
-    <col min="2049" max="2049" width="7.81640625" customWidth="1"/>
-    <col min="2050" max="2050" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="1802" max="1802" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1803" max="1803" width="14.7109375" customWidth="1"/>
+    <col min="2049" max="2049" width="7.85546875" customWidth="1"/>
+    <col min="2050" max="2050" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2052" max="2052" width="27" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="10.7265625" customWidth="1"/>
-    <col min="2055" max="2055" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="10.7109375" customWidth="1"/>
+    <col min="2055" max="2055" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="13" bestFit="1" customWidth="1"/>
     <col min="2057" max="2057" width="53" bestFit="1" customWidth="1"/>
-    <col min="2058" max="2058" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2059" max="2059" width="14.7265625" customWidth="1"/>
-    <col min="2305" max="2305" width="7.81640625" customWidth="1"/>
-    <col min="2306" max="2306" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2058" max="2058" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2059" max="2059" width="14.7109375" customWidth="1"/>
+    <col min="2305" max="2305" width="7.85546875" customWidth="1"/>
+    <col min="2306" max="2306" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2308" max="2308" width="27" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="10.7265625" customWidth="1"/>
-    <col min="2311" max="2311" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="10.7109375" customWidth="1"/>
+    <col min="2311" max="2311" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="13" bestFit="1" customWidth="1"/>
     <col min="2313" max="2313" width="53" bestFit="1" customWidth="1"/>
-    <col min="2314" max="2314" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2315" max="2315" width="14.7265625" customWidth="1"/>
-    <col min="2561" max="2561" width="7.81640625" customWidth="1"/>
-    <col min="2562" max="2562" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2314" max="2314" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2315" max="2315" width="14.7109375" customWidth="1"/>
+    <col min="2561" max="2561" width="7.85546875" customWidth="1"/>
+    <col min="2562" max="2562" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2564" max="2564" width="27" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="10.7265625" customWidth="1"/>
-    <col min="2567" max="2567" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="10.7109375" customWidth="1"/>
+    <col min="2567" max="2567" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="13" bestFit="1" customWidth="1"/>
     <col min="2569" max="2569" width="53" bestFit="1" customWidth="1"/>
-    <col min="2570" max="2570" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2571" max="2571" width="14.7265625" customWidth="1"/>
-    <col min="2817" max="2817" width="7.81640625" customWidth="1"/>
-    <col min="2818" max="2818" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2570" max="2570" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2571" max="2571" width="14.7109375" customWidth="1"/>
+    <col min="2817" max="2817" width="7.85546875" customWidth="1"/>
+    <col min="2818" max="2818" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2820" max="2820" width="27" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="10.7265625" customWidth="1"/>
-    <col min="2823" max="2823" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="10.7109375" customWidth="1"/>
+    <col min="2823" max="2823" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="13" bestFit="1" customWidth="1"/>
     <col min="2825" max="2825" width="53" bestFit="1" customWidth="1"/>
-    <col min="2826" max="2826" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="2827" max="2827" width="14.7265625" customWidth="1"/>
-    <col min="3073" max="3073" width="7.81640625" customWidth="1"/>
-    <col min="3074" max="3074" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2826" max="2826" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2827" max="2827" width="14.7109375" customWidth="1"/>
+    <col min="3073" max="3073" width="7.85546875" customWidth="1"/>
+    <col min="3074" max="3074" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3076" max="3076" width="27" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="10.7265625" customWidth="1"/>
-    <col min="3079" max="3079" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="10.7109375" customWidth="1"/>
+    <col min="3079" max="3079" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="13" bestFit="1" customWidth="1"/>
     <col min="3081" max="3081" width="53" bestFit="1" customWidth="1"/>
-    <col min="3082" max="3082" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3083" max="3083" width="14.7265625" customWidth="1"/>
-    <col min="3329" max="3329" width="7.81640625" customWidth="1"/>
-    <col min="3330" max="3330" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3082" max="3082" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3083" max="3083" width="14.7109375" customWidth="1"/>
+    <col min="3329" max="3329" width="7.85546875" customWidth="1"/>
+    <col min="3330" max="3330" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3332" max="3332" width="27" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="10.7265625" customWidth="1"/>
-    <col min="3335" max="3335" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="10.7109375" customWidth="1"/>
+    <col min="3335" max="3335" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="13" bestFit="1" customWidth="1"/>
     <col min="3337" max="3337" width="53" bestFit="1" customWidth="1"/>
-    <col min="3338" max="3338" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3339" max="3339" width="14.7265625" customWidth="1"/>
-    <col min="3585" max="3585" width="7.81640625" customWidth="1"/>
-    <col min="3586" max="3586" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3338" max="3338" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3339" max="3339" width="14.7109375" customWidth="1"/>
+    <col min="3585" max="3585" width="7.85546875" customWidth="1"/>
+    <col min="3586" max="3586" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3588" max="3588" width="27" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="10.7265625" customWidth="1"/>
-    <col min="3591" max="3591" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="10.7109375" customWidth="1"/>
+    <col min="3591" max="3591" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="13" bestFit="1" customWidth="1"/>
     <col min="3593" max="3593" width="53" bestFit="1" customWidth="1"/>
-    <col min="3594" max="3594" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3595" max="3595" width="14.7265625" customWidth="1"/>
-    <col min="3841" max="3841" width="7.81640625" customWidth="1"/>
-    <col min="3842" max="3842" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3594" max="3594" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3595" max="3595" width="14.7109375" customWidth="1"/>
+    <col min="3841" max="3841" width="7.85546875" customWidth="1"/>
+    <col min="3842" max="3842" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3844" max="3844" width="27" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="10.7265625" customWidth="1"/>
-    <col min="3847" max="3847" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="10.7109375" customWidth="1"/>
+    <col min="3847" max="3847" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="13" bestFit="1" customWidth="1"/>
     <col min="3849" max="3849" width="53" bestFit="1" customWidth="1"/>
-    <col min="3850" max="3850" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="3851" max="3851" width="14.7265625" customWidth="1"/>
-    <col min="4097" max="4097" width="7.81640625" customWidth="1"/>
-    <col min="4098" max="4098" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="3850" max="3850" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3851" max="3851" width="14.7109375" customWidth="1"/>
+    <col min="4097" max="4097" width="7.85546875" customWidth="1"/>
+    <col min="4098" max="4098" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4100" max="4100" width="27" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="10.7265625" customWidth="1"/>
-    <col min="4103" max="4103" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="10.7109375" customWidth="1"/>
+    <col min="4103" max="4103" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="13" bestFit="1" customWidth="1"/>
     <col min="4105" max="4105" width="53" bestFit="1" customWidth="1"/>
-    <col min="4106" max="4106" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4107" max="4107" width="14.7265625" customWidth="1"/>
-    <col min="4353" max="4353" width="7.81640625" customWidth="1"/>
-    <col min="4354" max="4354" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4106" max="4106" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4107" max="4107" width="14.7109375" customWidth="1"/>
+    <col min="4353" max="4353" width="7.85546875" customWidth="1"/>
+    <col min="4354" max="4354" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4356" max="4356" width="27" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="10.7265625" customWidth="1"/>
-    <col min="4359" max="4359" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="10.7109375" customWidth="1"/>
+    <col min="4359" max="4359" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="13" bestFit="1" customWidth="1"/>
     <col min="4361" max="4361" width="53" bestFit="1" customWidth="1"/>
-    <col min="4362" max="4362" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4363" max="4363" width="14.7265625" customWidth="1"/>
-    <col min="4609" max="4609" width="7.81640625" customWidth="1"/>
-    <col min="4610" max="4610" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4362" max="4362" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4363" max="4363" width="14.7109375" customWidth="1"/>
+    <col min="4609" max="4609" width="7.85546875" customWidth="1"/>
+    <col min="4610" max="4610" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4612" max="4612" width="27" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="10.7265625" customWidth="1"/>
-    <col min="4615" max="4615" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="10.7109375" customWidth="1"/>
+    <col min="4615" max="4615" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="13" bestFit="1" customWidth="1"/>
     <col min="4617" max="4617" width="53" bestFit="1" customWidth="1"/>
-    <col min="4618" max="4618" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4619" max="4619" width="14.7265625" customWidth="1"/>
-    <col min="4865" max="4865" width="7.81640625" customWidth="1"/>
-    <col min="4866" max="4866" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4618" max="4618" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4619" max="4619" width="14.7109375" customWidth="1"/>
+    <col min="4865" max="4865" width="7.85546875" customWidth="1"/>
+    <col min="4866" max="4866" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="4868" max="4868" width="27" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="10.7265625" customWidth="1"/>
-    <col min="4871" max="4871" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="10.7109375" customWidth="1"/>
+    <col min="4871" max="4871" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="13" bestFit="1" customWidth="1"/>
     <col min="4873" max="4873" width="53" bestFit="1" customWidth="1"/>
-    <col min="4874" max="4874" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="4875" max="4875" width="14.7265625" customWidth="1"/>
-    <col min="5121" max="5121" width="7.81640625" customWidth="1"/>
-    <col min="5122" max="5122" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="4874" max="4874" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4875" max="4875" width="14.7109375" customWidth="1"/>
+    <col min="5121" max="5121" width="7.85546875" customWidth="1"/>
+    <col min="5122" max="5122" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5124" max="5124" width="27" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="10.7265625" customWidth="1"/>
-    <col min="5127" max="5127" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="10.7109375" customWidth="1"/>
+    <col min="5127" max="5127" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="13" bestFit="1" customWidth="1"/>
     <col min="5129" max="5129" width="53" bestFit="1" customWidth="1"/>
-    <col min="5130" max="5130" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5131" max="5131" width="14.7265625" customWidth="1"/>
-    <col min="5377" max="5377" width="7.81640625" customWidth="1"/>
-    <col min="5378" max="5378" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5130" max="5130" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5131" max="5131" width="14.7109375" customWidth="1"/>
+    <col min="5377" max="5377" width="7.85546875" customWidth="1"/>
+    <col min="5378" max="5378" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5380" max="5380" width="27" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="10.7265625" customWidth="1"/>
-    <col min="5383" max="5383" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="10.7109375" customWidth="1"/>
+    <col min="5383" max="5383" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="13" bestFit="1" customWidth="1"/>
     <col min="5385" max="5385" width="53" bestFit="1" customWidth="1"/>
-    <col min="5386" max="5386" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5387" max="5387" width="14.7265625" customWidth="1"/>
-    <col min="5633" max="5633" width="7.81640625" customWidth="1"/>
-    <col min="5634" max="5634" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5386" max="5386" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5387" max="5387" width="14.7109375" customWidth="1"/>
+    <col min="5633" max="5633" width="7.85546875" customWidth="1"/>
+    <col min="5634" max="5634" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5636" max="5636" width="27" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="10.7265625" customWidth="1"/>
-    <col min="5639" max="5639" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="10.7109375" customWidth="1"/>
+    <col min="5639" max="5639" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="13" bestFit="1" customWidth="1"/>
     <col min="5641" max="5641" width="53" bestFit="1" customWidth="1"/>
-    <col min="5642" max="5642" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5643" max="5643" width="14.7265625" customWidth="1"/>
-    <col min="5889" max="5889" width="7.81640625" customWidth="1"/>
-    <col min="5890" max="5890" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5642" max="5642" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5643" max="5643" width="14.7109375" customWidth="1"/>
+    <col min="5889" max="5889" width="7.85546875" customWidth="1"/>
+    <col min="5890" max="5890" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5892" max="5892" width="27" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="10.7265625" customWidth="1"/>
-    <col min="5895" max="5895" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="10.7109375" customWidth="1"/>
+    <col min="5895" max="5895" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="13" bestFit="1" customWidth="1"/>
     <col min="5897" max="5897" width="53" bestFit="1" customWidth="1"/>
-    <col min="5898" max="5898" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5899" max="5899" width="14.7265625" customWidth="1"/>
-    <col min="6145" max="6145" width="7.81640625" customWidth="1"/>
-    <col min="6146" max="6146" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="5898" max="5898" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5899" max="5899" width="14.7109375" customWidth="1"/>
+    <col min="6145" max="6145" width="7.85546875" customWidth="1"/>
+    <col min="6146" max="6146" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6148" max="6148" width="27" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="10.7265625" customWidth="1"/>
-    <col min="6151" max="6151" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="10.7109375" customWidth="1"/>
+    <col min="6151" max="6151" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="13" bestFit="1" customWidth="1"/>
     <col min="6153" max="6153" width="53" bestFit="1" customWidth="1"/>
-    <col min="6154" max="6154" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6155" max="6155" width="14.7265625" customWidth="1"/>
-    <col min="6401" max="6401" width="7.81640625" customWidth="1"/>
-    <col min="6402" max="6402" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6154" max="6154" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6155" max="6155" width="14.7109375" customWidth="1"/>
+    <col min="6401" max="6401" width="7.85546875" customWidth="1"/>
+    <col min="6402" max="6402" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6404" max="6404" width="27" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="10.7265625" customWidth="1"/>
-    <col min="6407" max="6407" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="10.7109375" customWidth="1"/>
+    <col min="6407" max="6407" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="13" bestFit="1" customWidth="1"/>
     <col min="6409" max="6409" width="53" bestFit="1" customWidth="1"/>
-    <col min="6410" max="6410" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6411" max="6411" width="14.7265625" customWidth="1"/>
-    <col min="6657" max="6657" width="7.81640625" customWidth="1"/>
-    <col min="6658" max="6658" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6410" max="6410" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6411" max="6411" width="14.7109375" customWidth="1"/>
+    <col min="6657" max="6657" width="7.85546875" customWidth="1"/>
+    <col min="6658" max="6658" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6660" max="6660" width="27" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="10.7265625" customWidth="1"/>
-    <col min="6663" max="6663" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="10.7109375" customWidth="1"/>
+    <col min="6663" max="6663" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="13" bestFit="1" customWidth="1"/>
     <col min="6665" max="6665" width="53" bestFit="1" customWidth="1"/>
-    <col min="6666" max="6666" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6667" max="6667" width="14.7265625" customWidth="1"/>
-    <col min="6913" max="6913" width="7.81640625" customWidth="1"/>
-    <col min="6914" max="6914" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6666" max="6666" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6667" max="6667" width="14.7109375" customWidth="1"/>
+    <col min="6913" max="6913" width="7.85546875" customWidth="1"/>
+    <col min="6914" max="6914" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="6916" max="6916" width="27" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="10.7265625" customWidth="1"/>
-    <col min="6919" max="6919" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="10.7109375" customWidth="1"/>
+    <col min="6919" max="6919" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="13" bestFit="1" customWidth="1"/>
     <col min="6921" max="6921" width="53" bestFit="1" customWidth="1"/>
-    <col min="6922" max="6922" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="6923" max="6923" width="14.7265625" customWidth="1"/>
-    <col min="7169" max="7169" width="7.81640625" customWidth="1"/>
-    <col min="7170" max="7170" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="6922" max="6922" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6923" max="6923" width="14.7109375" customWidth="1"/>
+    <col min="7169" max="7169" width="7.85546875" customWidth="1"/>
+    <col min="7170" max="7170" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7172" max="7172" width="27" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="10.7265625" customWidth="1"/>
-    <col min="7175" max="7175" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="10.7109375" customWidth="1"/>
+    <col min="7175" max="7175" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="13" bestFit="1" customWidth="1"/>
     <col min="7177" max="7177" width="53" bestFit="1" customWidth="1"/>
-    <col min="7178" max="7178" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7179" max="7179" width="14.7265625" customWidth="1"/>
-    <col min="7425" max="7425" width="7.81640625" customWidth="1"/>
-    <col min="7426" max="7426" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="7178" max="7178" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7179" max="7179" width="14.7109375" customWidth="1"/>
+    <col min="7425" max="7425" width="7.85546875" customWidth="1"/>
+    <col min="7426" max="7426" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7428" max="7428" width="27" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="10.7265625" customWidth="1"/>
-    <col min="7431" max="7431" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="10.7109375" customWidth="1"/>
+    <col min="7431" max="7431" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="13" bestFit="1" customWidth="1"/>
     <col min="7433" max="7433" width="53" bestFit="1" customWidth="1"/>
-    <col min="7434" max="7434" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7435" max="7435" width="14.7265625" customWidth="1"/>
-    <col min="7681" max="7681" width="7.81640625" customWidth="1"/>
-    <col min="7682" max="7682" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="7434" max="7434" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7435" max="7435" width="14.7109375" customWidth="1"/>
+    <col min="7681" max="7681" width="7.85546875" customWidth="1"/>
+    <col min="7682" max="7682" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7684" max="7684" width="27" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="10.7265625" customWidth="1"/>
-    <col min="7687" max="7687" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="10.7109375" customWidth="1"/>
+    <col min="7687" max="7687" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="13" bestFit="1" customWidth="1"/>
     <col min="7689" max="7689" width="53" bestFit="1" customWidth="1"/>
-    <col min="7690" max="7690" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7691" max="7691" width="14.7265625" customWidth="1"/>
-    <col min="7937" max="7937" width="7.81640625" customWidth="1"/>
-    <col min="7938" max="7938" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="7690" max="7690" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7691" max="7691" width="14.7109375" customWidth="1"/>
+    <col min="7937" max="7937" width="7.85546875" customWidth="1"/>
+    <col min="7938" max="7938" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="7940" max="7940" width="27" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="10.7265625" customWidth="1"/>
-    <col min="7943" max="7943" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="10.7109375" customWidth="1"/>
+    <col min="7943" max="7943" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="13" bestFit="1" customWidth="1"/>
     <col min="7945" max="7945" width="53" bestFit="1" customWidth="1"/>
-    <col min="7946" max="7946" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="7947" max="7947" width="14.7265625" customWidth="1"/>
-    <col min="8193" max="8193" width="7.81640625" customWidth="1"/>
-    <col min="8194" max="8194" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="7946" max="7946" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7947" max="7947" width="14.7109375" customWidth="1"/>
+    <col min="8193" max="8193" width="7.85546875" customWidth="1"/>
+    <col min="8194" max="8194" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8196" max="8196" width="27" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="10.7265625" customWidth="1"/>
-    <col min="8199" max="8199" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="10.7109375" customWidth="1"/>
+    <col min="8199" max="8199" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="13" bestFit="1" customWidth="1"/>
     <col min="8201" max="8201" width="53" bestFit="1" customWidth="1"/>
-    <col min="8202" max="8202" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8203" max="8203" width="14.7265625" customWidth="1"/>
-    <col min="8449" max="8449" width="7.81640625" customWidth="1"/>
-    <col min="8450" max="8450" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8202" max="8202" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8203" max="8203" width="14.7109375" customWidth="1"/>
+    <col min="8449" max="8449" width="7.85546875" customWidth="1"/>
+    <col min="8450" max="8450" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8452" max="8452" width="27" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="10.7265625" customWidth="1"/>
-    <col min="8455" max="8455" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="10.7109375" customWidth="1"/>
+    <col min="8455" max="8455" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="13" bestFit="1" customWidth="1"/>
     <col min="8457" max="8457" width="53" bestFit="1" customWidth="1"/>
-    <col min="8458" max="8458" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8459" max="8459" width="14.7265625" customWidth="1"/>
-    <col min="8705" max="8705" width="7.81640625" customWidth="1"/>
-    <col min="8706" max="8706" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8458" max="8458" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8459" max="8459" width="14.7109375" customWidth="1"/>
+    <col min="8705" max="8705" width="7.85546875" customWidth="1"/>
+    <col min="8706" max="8706" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8708" max="8708" width="27" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="10.7265625" customWidth="1"/>
-    <col min="8711" max="8711" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="10.7109375" customWidth="1"/>
+    <col min="8711" max="8711" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="13" bestFit="1" customWidth="1"/>
     <col min="8713" max="8713" width="53" bestFit="1" customWidth="1"/>
-    <col min="8714" max="8714" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8715" max="8715" width="14.7265625" customWidth="1"/>
-    <col min="8961" max="8961" width="7.81640625" customWidth="1"/>
-    <col min="8962" max="8962" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8714" max="8714" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8715" max="8715" width="14.7109375" customWidth="1"/>
+    <col min="8961" max="8961" width="7.85546875" customWidth="1"/>
+    <col min="8962" max="8962" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="8964" max="8964" width="27" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="10.7265625" customWidth="1"/>
-    <col min="8967" max="8967" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="10.7109375" customWidth="1"/>
+    <col min="8967" max="8967" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="13" bestFit="1" customWidth="1"/>
     <col min="8969" max="8969" width="53" bestFit="1" customWidth="1"/>
-    <col min="8970" max="8970" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="8971" max="8971" width="14.7265625" customWidth="1"/>
-    <col min="9217" max="9217" width="7.81640625" customWidth="1"/>
-    <col min="9218" max="9218" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="8970" max="8970" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8971" max="8971" width="14.7109375" customWidth="1"/>
+    <col min="9217" max="9217" width="7.85546875" customWidth="1"/>
+    <col min="9218" max="9218" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="9220" max="9220" width="27" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="10.7265625" customWidth="1"/>
-    <col min="9223" max="9223" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="10.7109375" customWidth="1"/>
+    <col min="9223" max="9223" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="13" bestFit="1" customWidth="1"/>
     <col min="9225" max="9225" width="53" bestFit="1" customWidth="1"/>
-    <col min="9226" max="9226" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9227" max="9227" width="14.7265625" customWidth="1"/>
-    <col min="9473" max="9473" width="7.81640625" customWidth="1"/>
-    <col min="9474" max="9474" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9226" max="9226" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9227" max="9227" width="14.7109375" customWidth="1"/>
+    <col min="9473" max="9473" width="7.85546875" customWidth="1"/>
+    <col min="9474" max="9474" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="9476" max="9476" width="27" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="10.7265625" customWidth="1"/>
-    <col min="9479" max="9479" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="10.7109375" customWidth="1"/>
+    <col min="9479" max="9479" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="13" bestFit="1" customWidth="1"/>
     <col min="9481" max="9481" width="53" bestFit="1" customWidth="1"/>
-    <col min="9482" max="9482" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9483" max="9483" width="14.7265625" customWidth="1"/>
-    <col min="9729" max="9729" width="7.81640625" customWidth="1"/>
-    <col min="9730" max="9730" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9482" max="9482" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9483" max="9483" width="14.7109375" customWidth="1"/>
+    <col min="9729" max="9729" width="7.85546875" customWidth="1"/>
+    <col min="9730" max="9730" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="9732" max="9732" width="27" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="10.7265625" customWidth="1"/>
-    <col min="9735" max="9735" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="10.7109375" customWidth="1"/>
+    <col min="9735" max="9735" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="13" bestFit="1" customWidth="1"/>
     <col min="9737" max="9737" width="53" bestFit="1" customWidth="1"/>
-    <col min="9738" max="9738" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9739" max="9739" width="14.7265625" customWidth="1"/>
-    <col min="9985" max="9985" width="7.81640625" customWidth="1"/>
-    <col min="9986" max="9986" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9738" max="9738" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9739" max="9739" width="14.7109375" customWidth="1"/>
+    <col min="9985" max="9985" width="7.85546875" customWidth="1"/>
+    <col min="9986" max="9986" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="9988" max="9988" width="27" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="10.7265625" customWidth="1"/>
-    <col min="9991" max="9991" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="10.7109375" customWidth="1"/>
+    <col min="9991" max="9991" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="13" bestFit="1" customWidth="1"/>
     <col min="9993" max="9993" width="53" bestFit="1" customWidth="1"/>
-    <col min="9994" max="9994" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="9995" max="9995" width="14.7265625" customWidth="1"/>
-    <col min="10241" max="10241" width="7.81640625" customWidth="1"/>
-    <col min="10242" max="10242" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="9994" max="9994" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9995" max="9995" width="14.7109375" customWidth="1"/>
+    <col min="10241" max="10241" width="7.85546875" customWidth="1"/>
+    <col min="10242" max="10242" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10244" max="10244" width="27" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="10.7265625" customWidth="1"/>
-    <col min="10247" max="10247" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="10.7109375" customWidth="1"/>
+    <col min="10247" max="10247" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="13" bestFit="1" customWidth="1"/>
     <col min="10249" max="10249" width="53" bestFit="1" customWidth="1"/>
-    <col min="10250" max="10250" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10251" max="10251" width="14.7265625" customWidth="1"/>
-    <col min="10497" max="10497" width="7.81640625" customWidth="1"/>
-    <col min="10498" max="10498" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="10250" max="10250" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10251" max="10251" width="14.7109375" customWidth="1"/>
+    <col min="10497" max="10497" width="7.85546875" customWidth="1"/>
+    <col min="10498" max="10498" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10500" max="10500" width="27" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="10.7265625" customWidth="1"/>
-    <col min="10503" max="10503" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="10.7109375" customWidth="1"/>
+    <col min="10503" max="10503" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="13" bestFit="1" customWidth="1"/>
     <col min="10505" max="10505" width="53" bestFit="1" customWidth="1"/>
-    <col min="10506" max="10506" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10507" max="10507" width="14.7265625" customWidth="1"/>
-    <col min="10753" max="10753" width="7.81640625" customWidth="1"/>
-    <col min="10754" max="10754" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="10506" max="10506" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10507" max="10507" width="14.7109375" customWidth="1"/>
+    <col min="10753" max="10753" width="7.85546875" customWidth="1"/>
+    <col min="10754" max="10754" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="10756" max="10756" width="27" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="10.7265625" customWidth="1"/>
-    <col min="10759" max="10759" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="10.7109375" customWidth="1"/>
+    <col min="10759" max="10759" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="13" bestFit="1" customWidth="1"/>
     <col min="10761" max="10761" width="53" bestFit="1" customWidth="1"/>
-    <col min="10762" max="10762" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10763" max="10763" width="14.7265625" customWidth="1"/>
-    <col min="11009" max="11009" width="7.81640625" customWidth="1"/>
-    <col min="11010" max="11010" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="10762" max="10762" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10763" max="10763" width="14.7109375" customWidth="1"/>
+    <col min="11009" max="11009" width="7.85546875" customWidth="1"/>
+    <col min="11010" max="11010" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11012" max="11012" width="27" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="10.7265625" customWidth="1"/>
-    <col min="11015" max="11015" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="10.7109375" customWidth="1"/>
+    <col min="11015" max="11015" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="13" bestFit="1" customWidth="1"/>
     <col min="11017" max="11017" width="53" bestFit="1" customWidth="1"/>
-    <col min="11018" max="11018" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11019" max="11019" width="14.7265625" customWidth="1"/>
-    <col min="11265" max="11265" width="7.81640625" customWidth="1"/>
-    <col min="11266" max="11266" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="11018" max="11018" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11019" max="11019" width="14.7109375" customWidth="1"/>
+    <col min="11265" max="11265" width="7.85546875" customWidth="1"/>
+    <col min="11266" max="11266" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11268" max="11268" width="27" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="10.7265625" customWidth="1"/>
-    <col min="11271" max="11271" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="10.7109375" customWidth="1"/>
+    <col min="11271" max="11271" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="13" bestFit="1" customWidth="1"/>
     <col min="11273" max="11273" width="53" bestFit="1" customWidth="1"/>
-    <col min="11274" max="11274" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11275" max="11275" width="14.7265625" customWidth="1"/>
-    <col min="11521" max="11521" width="7.81640625" customWidth="1"/>
-    <col min="11522" max="11522" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="11274" max="11274" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11275" max="11275" width="14.7109375" customWidth="1"/>
+    <col min="11521" max="11521" width="7.85546875" customWidth="1"/>
+    <col min="11522" max="11522" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11524" max="11524" width="27" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="10.7265625" customWidth="1"/>
-    <col min="11527" max="11527" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="10.7109375" customWidth="1"/>
+    <col min="11527" max="11527" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="13" bestFit="1" customWidth="1"/>
     <col min="11529" max="11529" width="53" bestFit="1" customWidth="1"/>
-    <col min="11530" max="11530" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11531" max="11531" width="14.7265625" customWidth="1"/>
-    <col min="11777" max="11777" width="7.81640625" customWidth="1"/>
-    <col min="11778" max="11778" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="11530" max="11530" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11531" max="11531" width="14.7109375" customWidth="1"/>
+    <col min="11777" max="11777" width="7.85546875" customWidth="1"/>
+    <col min="11778" max="11778" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="11780" max="11780" width="27" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="10.7265625" customWidth="1"/>
-    <col min="11783" max="11783" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="10.7109375" customWidth="1"/>
+    <col min="11783" max="11783" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="13" bestFit="1" customWidth="1"/>
     <col min="11785" max="11785" width="53" bestFit="1" customWidth="1"/>
-    <col min="11786" max="11786" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11787" max="11787" width="14.7265625" customWidth="1"/>
-    <col min="12033" max="12033" width="7.81640625" customWidth="1"/>
-    <col min="12034" max="12034" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="11786" max="11786" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11787" max="11787" width="14.7109375" customWidth="1"/>
+    <col min="12033" max="12033" width="7.85546875" customWidth="1"/>
+    <col min="12034" max="12034" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="12036" max="12036" width="27" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="10.7265625" customWidth="1"/>
-    <col min="12039" max="12039" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="10.7109375" customWidth="1"/>
+    <col min="12039" max="12039" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="13" bestFit="1" customWidth="1"/>
     <col min="12041" max="12041" width="53" bestFit="1" customWidth="1"/>
-    <col min="12042" max="12042" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12043" max="12043" width="14.7265625" customWidth="1"/>
-    <col min="12289" max="12289" width="7.81640625" customWidth="1"/>
-    <col min="12290" max="12290" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="12042" max="12042" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12043" max="12043" width="14.7109375" customWidth="1"/>
+    <col min="12289" max="12289" width="7.85546875" customWidth="1"/>
+    <col min="12290" max="12290" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="12292" max="12292" width="27" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="10.7265625" customWidth="1"/>
-    <col min="12295" max="12295" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="10.7109375" customWidth="1"/>
+    <col min="12295" max="12295" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="13" bestFit="1" customWidth="1"/>
     <col min="12297" max="12297" width="53" bestFit="1" customWidth="1"/>
-    <col min="12298" max="12298" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12299" max="12299" width="14.7265625" customWidth="1"/>
-    <col min="12545" max="12545" width="7.81640625" customWidth="1"/>
-    <col min="12546" max="12546" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="12298" max="12298" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12299" max="12299" width="14.7109375" customWidth="1"/>
+    <col min="12545" max="12545" width="7.85546875" customWidth="1"/>
+    <col min="12546" max="12546" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="12548" max="12548" width="27" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="10.7265625" customWidth="1"/>
-    <col min="12551" max="12551" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="10.7109375" customWidth="1"/>
+    <col min="12551" max="12551" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="13" bestFit="1" customWidth="1"/>
     <col min="12553" max="12553" width="53" bestFit="1" customWidth="1"/>
-    <col min="12554" max="12554" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12555" max="12555" width="14.7265625" customWidth="1"/>
-    <col min="12801" max="12801" width="7.81640625" customWidth="1"/>
-    <col min="12802" max="12802" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="12554" max="12554" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12555" max="12555" width="14.7109375" customWidth="1"/>
+    <col min="12801" max="12801" width="7.85546875" customWidth="1"/>
+    <col min="12802" max="12802" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="12804" max="12804" width="27" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="10.7265625" customWidth="1"/>
-    <col min="12807" max="12807" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="10.7109375" customWidth="1"/>
+    <col min="12807" max="12807" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="13" bestFit="1" customWidth="1"/>
     <col min="12809" max="12809" width="53" bestFit="1" customWidth="1"/>
-    <col min="12810" max="12810" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12811" max="12811" width="14.7265625" customWidth="1"/>
-    <col min="13057" max="13057" width="7.81640625" customWidth="1"/>
-    <col min="13058" max="13058" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="12810" max="12810" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="12811" max="12811" width="14.7109375" customWidth="1"/>
+    <col min="13057" max="13057" width="7.85546875" customWidth="1"/>
+    <col min="13058" max="13058" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13060" max="13060" width="27" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="10.7265625" customWidth="1"/>
-    <col min="13063" max="13063" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="10.7109375" customWidth="1"/>
+    <col min="13063" max="13063" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="13" bestFit="1" customWidth="1"/>
     <col min="13065" max="13065" width="53" bestFit="1" customWidth="1"/>
-    <col min="13066" max="13066" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13067" max="13067" width="14.7265625" customWidth="1"/>
-    <col min="13313" max="13313" width="7.81640625" customWidth="1"/>
-    <col min="13314" max="13314" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="13066" max="13066" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13067" max="13067" width="14.7109375" customWidth="1"/>
+    <col min="13313" max="13313" width="7.85546875" customWidth="1"/>
+    <col min="13314" max="13314" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13316" max="13316" width="27" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="10.7265625" customWidth="1"/>
-    <col min="13319" max="13319" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="10.7109375" customWidth="1"/>
+    <col min="13319" max="13319" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="13" bestFit="1" customWidth="1"/>
     <col min="13321" max="13321" width="53" bestFit="1" customWidth="1"/>
-    <col min="13322" max="13322" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13323" max="13323" width="14.7265625" customWidth="1"/>
-    <col min="13569" max="13569" width="7.81640625" customWidth="1"/>
-    <col min="13570" max="13570" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="13322" max="13322" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13323" max="13323" width="14.7109375" customWidth="1"/>
+    <col min="13569" max="13569" width="7.85546875" customWidth="1"/>
+    <col min="13570" max="13570" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13572" max="13572" width="27" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="10.7265625" customWidth="1"/>
-    <col min="13575" max="13575" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="10.7109375" customWidth="1"/>
+    <col min="13575" max="13575" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="13" bestFit="1" customWidth="1"/>
     <col min="13577" max="13577" width="53" bestFit="1" customWidth="1"/>
-    <col min="13578" max="13578" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13579" max="13579" width="14.7265625" customWidth="1"/>
-    <col min="13825" max="13825" width="7.81640625" customWidth="1"/>
-    <col min="13826" max="13826" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="13578" max="13578" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13579" max="13579" width="14.7109375" customWidth="1"/>
+    <col min="13825" max="13825" width="7.85546875" customWidth="1"/>
+    <col min="13826" max="13826" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13828" max="13828" width="27" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="10.7265625" customWidth="1"/>
-    <col min="13831" max="13831" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="10.7109375" customWidth="1"/>
+    <col min="13831" max="13831" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="13" bestFit="1" customWidth="1"/>
     <col min="13833" max="13833" width="53" bestFit="1" customWidth="1"/>
-    <col min="13834" max="13834" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13835" max="13835" width="14.7265625" customWidth="1"/>
-    <col min="14081" max="14081" width="7.81640625" customWidth="1"/>
-    <col min="14082" max="14082" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="13834" max="13834" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13835" max="13835" width="14.7109375" customWidth="1"/>
+    <col min="14081" max="14081" width="7.85546875" customWidth="1"/>
+    <col min="14082" max="14082" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14084" max="14084" width="27" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="10.7265625" customWidth="1"/>
-    <col min="14087" max="14087" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="10.7109375" customWidth="1"/>
+    <col min="14087" max="14087" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="13" bestFit="1" customWidth="1"/>
     <col min="14089" max="14089" width="53" bestFit="1" customWidth="1"/>
-    <col min="14090" max="14090" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="14091" max="14091" width="14.7265625" customWidth="1"/>
-    <col min="14337" max="14337" width="7.81640625" customWidth="1"/>
-    <col min="14338" max="14338" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="14090" max="14090" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14091" max="14091" width="14.7109375" customWidth="1"/>
+    <col min="14337" max="14337" width="7.85546875" customWidth="1"/>
+    <col min="14338" max="14338" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14340" max="14340" width="27" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="10.7265625" customWidth="1"/>
-    <col min="14343" max="14343" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="10.7109375" customWidth="1"/>
+    <col min="14343" max="14343" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="13" bestFit="1" customWidth="1"/>
     <col min="14345" max="14345" width="53" bestFit="1" customWidth="1"/>
-    <col min="14346" max="14346" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="14347" max="14347" width="14.7265625" customWidth="1"/>
-    <col min="14593" max="14593" width="7.81640625" customWidth="1"/>
-    <col min="14594" max="14594" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="14346" max="14346" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14347" max="14347" width="14.7109375" customWidth="1"/>
+    <col min="14593" max="14593" width="7.85546875" customWidth="1"/>
+    <col min="14594" max="14594" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14596" max="14596" width="27" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="10.7265625" customWidth="1"/>
-    <col min="14599" max="14599" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="10.7109375" customWidth="1"/>
+    <col min="14599" max="14599" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="13" bestFit="1" customWidth="1"/>
     <col min="14601" max="14601" width="53" bestFit="1" customWidth="1"/>
-    <col min="14602" max="14602" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="14603" max="14603" width="14.7265625" customWidth="1"/>
-    <col min="14849" max="14849" width="7.81640625" customWidth="1"/>
-    <col min="14850" max="14850" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="14602" max="14602" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14603" max="14603" width="14.7109375" customWidth="1"/>
+    <col min="14849" max="14849" width="7.85546875" customWidth="1"/>
+    <col min="14850" max="14850" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="14852" max="14852" width="27" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="10.7265625" customWidth="1"/>
-    <col min="14855" max="14855" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="10.7109375" customWidth="1"/>
+    <col min="14855" max="14855" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="13" bestFit="1" customWidth="1"/>
     <col min="14857" max="14857" width="53" bestFit="1" customWidth="1"/>
-    <col min="14858" max="14858" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="14859" max="14859" width="14.7265625" customWidth="1"/>
-    <col min="15105" max="15105" width="7.81640625" customWidth="1"/>
-    <col min="15106" max="15106" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="14858" max="14858" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14859" max="14859" width="14.7109375" customWidth="1"/>
+    <col min="15105" max="15105" width="7.85546875" customWidth="1"/>
+    <col min="15106" max="15106" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="15108" max="15108" width="27" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="10.7265625" customWidth="1"/>
-    <col min="15111" max="15111" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="10.7109375" customWidth="1"/>
+    <col min="15111" max="15111" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="13" bestFit="1" customWidth="1"/>
     <col min="15113" max="15113" width="53" bestFit="1" customWidth="1"/>
-    <col min="15114" max="15114" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15115" max="15115" width="14.7265625" customWidth="1"/>
-    <col min="15361" max="15361" width="7.81640625" customWidth="1"/>
-    <col min="15362" max="15362" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="15114" max="15114" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15115" max="15115" width="14.7109375" customWidth="1"/>
+    <col min="15361" max="15361" width="7.85546875" customWidth="1"/>
+    <col min="15362" max="15362" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="15364" max="15364" width="27" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="10.7265625" customWidth="1"/>
-    <col min="15367" max="15367" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="10.7109375" customWidth="1"/>
+    <col min="15367" max="15367" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="13" bestFit="1" customWidth="1"/>
     <col min="15369" max="15369" width="53" bestFit="1" customWidth="1"/>
-    <col min="15370" max="15370" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15371" max="15371" width="14.7265625" customWidth="1"/>
-    <col min="15617" max="15617" width="7.81640625" customWidth="1"/>
-    <col min="15618" max="15618" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="15370" max="15370" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15371" max="15371" width="14.7109375" customWidth="1"/>
+    <col min="15617" max="15617" width="7.85546875" customWidth="1"/>
+    <col min="15618" max="15618" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="15620" max="15620" width="27" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="10.7265625" customWidth="1"/>
-    <col min="15623" max="15623" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="10.7109375" customWidth="1"/>
+    <col min="15623" max="15623" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="13" bestFit="1" customWidth="1"/>
     <col min="15625" max="15625" width="53" bestFit="1" customWidth="1"/>
-    <col min="15626" max="15626" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15627" max="15627" width="14.7265625" customWidth="1"/>
-    <col min="15873" max="15873" width="7.81640625" customWidth="1"/>
-    <col min="15874" max="15874" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="15626" max="15626" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15627" max="15627" width="14.7109375" customWidth="1"/>
+    <col min="15873" max="15873" width="7.85546875" customWidth="1"/>
+    <col min="15874" max="15874" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="15876" max="15876" width="27" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="10.7265625" customWidth="1"/>
-    <col min="15879" max="15879" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="10.7109375" customWidth="1"/>
+    <col min="15879" max="15879" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="13" bestFit="1" customWidth="1"/>
     <col min="15881" max="15881" width="53" bestFit="1" customWidth="1"/>
-    <col min="15882" max="15882" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="15883" max="15883" width="14.7265625" customWidth="1"/>
-    <col min="16129" max="16129" width="7.81640625" customWidth="1"/>
-    <col min="16130" max="16130" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="15882" max="15882" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15883" max="15883" width="14.7109375" customWidth="1"/>
+    <col min="16129" max="16129" width="7.85546875" customWidth="1"/>
+    <col min="16130" max="16130" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="16132" max="16132" width="27" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="10.7265625" customWidth="1"/>
-    <col min="16135" max="16135" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="10.7109375" customWidth="1"/>
+    <col min="16135" max="16135" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="13" bestFit="1" customWidth="1"/>
     <col min="16137" max="16137" width="53" bestFit="1" customWidth="1"/>
-    <col min="16138" max="16138" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="16139" max="16139" width="14.7265625" customWidth="1"/>
+    <col min="16138" max="16138" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16139" max="16139" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -2281,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -2318,7 +2239,7 @@
         <v>7.0175438596491224E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -2355,7 +2276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -2389,7 +2310,7 @@
       </c>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -2423,7 +2344,7 @@
       </c>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -2457,7 +2378,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="str">
@@ -2477,7 +2398,7 @@
       <c r="I9" s="17"/>
       <c r="J9" s="19"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="22" t="str">
@@ -2498,15 +2419,15 @@
       <c r="I10" s="25"/>
       <c r="J10" s="26"/>
     </row>
-    <row r="11" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
     </row>
-    <row r="13" spans="1:11" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
@@ -2541,7 +2462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>0</v>
       </c>
@@ -2578,7 +2499,7 @@
         <v>0.33333333333333326</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
         <v>1</v>
       </c>
@@ -2613,7 +2534,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <v>2</v>
       </c>
@@ -2648,7 +2569,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>3</v>
       </c>
@@ -2683,7 +2604,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="7">
         <v>4</v>
       </c>
@@ -2718,7 +2639,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>5</v>
       </c>
@@ -2750,7 +2671,7 @@
       </c>
       <c r="K21" s="12"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="15"/>
       <c r="B22" s="33" t="str">
         <f t="shared" ref="B22:B30" si="2">IF(AND(B21&lt;&gt;"",C21&lt;&gt;"",C22&lt;&gt;""),B21+C21,"")</f>
@@ -2772,7 +2693,7 @@
       <c r="J22" s="36"/>
       <c r="K22" s="18"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="str">
         <f>IF(AND(B23&lt;&gt;"",C23&lt;&gt;""),A22+1,"")</f>
         <v/>
@@ -2799,7 +2720,7 @@
       <c r="J23" s="36"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="str">
         <f t="shared" ref="A24:A30" si="4">IF(AND(B24&lt;&gt;"",C24&lt;&gt;""),A23+1,"")</f>
         <v/>
@@ -2826,7 +2747,7 @@
       <c r="J24" s="36"/>
       <c r="K24" s="19"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2853,7 +2774,7 @@
       <c r="J25" s="36"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2880,7 +2801,7 @@
       <c r="J26" s="36"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2907,7 +2828,7 @@
       <c r="J27" s="36"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2934,7 +2855,7 @@
       <c r="J28" s="36"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2961,7 +2882,7 @@
       <c r="J29" s="36"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2988,7 +2909,7 @@
       <c r="J30" s="39"/>
       <c r="K30" s="26"/>
     </row>
-    <row r="31" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -3004,7 +2925,7 @@
       <c r="H31" s="43"/>
       <c r="I31" s="40"/>
     </row>
-    <row r="32" spans="1:11" ht="13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D32" s="44" t="s">
         <v>24</v>
       </c>
@@ -3019,80 +2940,80 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H4:I6 E5:F6 E31:F32 A4:D10 E9:F10 E7:E8 H9:I10">
-    <cfRule type="expression" dxfId="43" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="14" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="15" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G6 G16:G30 G9:G10">
-    <cfRule type="expression" dxfId="41" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="16" stopIfTrue="1">
       <formula>$G4="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="17" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:F5 F6 H16:I30 A16:F30">
-    <cfRule type="expression" dxfId="38" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="19" stopIfTrue="1">
       <formula>OR($G4="Planned",$G4="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="20" stopIfTrue="1">
       <formula>$G4="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="expression" dxfId="34" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="11" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D21">
-    <cfRule type="expression" dxfId="32" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
       <formula>$G16="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
       <formula>$G16="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:I8 F7:F8">
-    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="2" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:G8">
-    <cfRule type="expression" dxfId="28" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="3" stopIfTrue="1">
       <formula>$G7="Planned"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="5" stopIfTrue="1" operator="equal">
       <formula>"Unplanned"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="expression" dxfId="25" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="6" stopIfTrue="1">
       <formula>OR($G7="Planned",$G7="Unplanned")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="7" stopIfTrue="1">
       <formula>$G7="Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3116,463 +3037,463 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="48"/>
-    <col min="2" max="2" width="39.26953125" style="46" customWidth="1"/>
-    <col min="3" max="3" width="10.81640625" style="48" customWidth="1"/>
-    <col min="4" max="6" width="9.1796875" style="48"/>
-    <col min="7" max="7" width="10.7265625" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.54296875" style="46" customWidth="1"/>
-    <col min="9" max="9" width="46.1796875" style="49" customWidth="1"/>
-    <col min="10" max="257" width="9.1796875" style="49"/>
-    <col min="258" max="258" width="39.26953125" style="49" customWidth="1"/>
-    <col min="259" max="259" width="10.81640625" style="49" customWidth="1"/>
-    <col min="260" max="262" width="9.1796875" style="49"/>
-    <col min="263" max="263" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="264" max="264" width="39.54296875" style="49" customWidth="1"/>
-    <col min="265" max="265" width="46.1796875" style="49" customWidth="1"/>
-    <col min="266" max="513" width="9.1796875" style="49"/>
-    <col min="514" max="514" width="39.26953125" style="49" customWidth="1"/>
-    <col min="515" max="515" width="10.81640625" style="49" customWidth="1"/>
-    <col min="516" max="518" width="9.1796875" style="49"/>
-    <col min="519" max="519" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="520" max="520" width="39.54296875" style="49" customWidth="1"/>
-    <col min="521" max="521" width="46.1796875" style="49" customWidth="1"/>
-    <col min="522" max="769" width="9.1796875" style="49"/>
-    <col min="770" max="770" width="39.26953125" style="49" customWidth="1"/>
-    <col min="771" max="771" width="10.81640625" style="49" customWidth="1"/>
-    <col min="772" max="774" width="9.1796875" style="49"/>
-    <col min="775" max="775" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="39.54296875" style="49" customWidth="1"/>
-    <col min="777" max="777" width="46.1796875" style="49" customWidth="1"/>
-    <col min="778" max="1025" width="9.1796875" style="49"/>
-    <col min="1026" max="1026" width="39.26953125" style="49" customWidth="1"/>
-    <col min="1027" max="1027" width="10.81640625" style="49" customWidth="1"/>
-    <col min="1028" max="1030" width="9.1796875" style="49"/>
-    <col min="1031" max="1031" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="1032" max="1032" width="39.54296875" style="49" customWidth="1"/>
-    <col min="1033" max="1033" width="46.1796875" style="49" customWidth="1"/>
-    <col min="1034" max="1281" width="9.1796875" style="49"/>
-    <col min="1282" max="1282" width="39.26953125" style="49" customWidth="1"/>
-    <col min="1283" max="1283" width="10.81640625" style="49" customWidth="1"/>
-    <col min="1284" max="1286" width="9.1796875" style="49"/>
-    <col min="1287" max="1287" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="1288" max="1288" width="39.54296875" style="49" customWidth="1"/>
-    <col min="1289" max="1289" width="46.1796875" style="49" customWidth="1"/>
-    <col min="1290" max="1537" width="9.1796875" style="49"/>
-    <col min="1538" max="1538" width="39.26953125" style="49" customWidth="1"/>
-    <col min="1539" max="1539" width="10.81640625" style="49" customWidth="1"/>
-    <col min="1540" max="1542" width="9.1796875" style="49"/>
-    <col min="1543" max="1543" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="1544" max="1544" width="39.54296875" style="49" customWidth="1"/>
-    <col min="1545" max="1545" width="46.1796875" style="49" customWidth="1"/>
-    <col min="1546" max="1793" width="9.1796875" style="49"/>
-    <col min="1794" max="1794" width="39.26953125" style="49" customWidth="1"/>
-    <col min="1795" max="1795" width="10.81640625" style="49" customWidth="1"/>
-    <col min="1796" max="1798" width="9.1796875" style="49"/>
-    <col min="1799" max="1799" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="1800" max="1800" width="39.54296875" style="49" customWidth="1"/>
-    <col min="1801" max="1801" width="46.1796875" style="49" customWidth="1"/>
-    <col min="1802" max="2049" width="9.1796875" style="49"/>
-    <col min="2050" max="2050" width="39.26953125" style="49" customWidth="1"/>
-    <col min="2051" max="2051" width="10.81640625" style="49" customWidth="1"/>
-    <col min="2052" max="2054" width="9.1796875" style="49"/>
-    <col min="2055" max="2055" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2056" max="2056" width="39.54296875" style="49" customWidth="1"/>
-    <col min="2057" max="2057" width="46.1796875" style="49" customWidth="1"/>
-    <col min="2058" max="2305" width="9.1796875" style="49"/>
-    <col min="2306" max="2306" width="39.26953125" style="49" customWidth="1"/>
-    <col min="2307" max="2307" width="10.81640625" style="49" customWidth="1"/>
-    <col min="2308" max="2310" width="9.1796875" style="49"/>
-    <col min="2311" max="2311" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2312" max="2312" width="39.54296875" style="49" customWidth="1"/>
-    <col min="2313" max="2313" width="46.1796875" style="49" customWidth="1"/>
-    <col min="2314" max="2561" width="9.1796875" style="49"/>
-    <col min="2562" max="2562" width="39.26953125" style="49" customWidth="1"/>
-    <col min="2563" max="2563" width="10.81640625" style="49" customWidth="1"/>
-    <col min="2564" max="2566" width="9.1796875" style="49"/>
-    <col min="2567" max="2567" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2568" max="2568" width="39.54296875" style="49" customWidth="1"/>
-    <col min="2569" max="2569" width="46.1796875" style="49" customWidth="1"/>
-    <col min="2570" max="2817" width="9.1796875" style="49"/>
-    <col min="2818" max="2818" width="39.26953125" style="49" customWidth="1"/>
-    <col min="2819" max="2819" width="10.81640625" style="49" customWidth="1"/>
-    <col min="2820" max="2822" width="9.1796875" style="49"/>
-    <col min="2823" max="2823" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2824" max="2824" width="39.54296875" style="49" customWidth="1"/>
-    <col min="2825" max="2825" width="46.1796875" style="49" customWidth="1"/>
-    <col min="2826" max="3073" width="9.1796875" style="49"/>
-    <col min="3074" max="3074" width="39.26953125" style="49" customWidth="1"/>
-    <col min="3075" max="3075" width="10.81640625" style="49" customWidth="1"/>
-    <col min="3076" max="3078" width="9.1796875" style="49"/>
-    <col min="3079" max="3079" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3080" max="3080" width="39.54296875" style="49" customWidth="1"/>
-    <col min="3081" max="3081" width="46.1796875" style="49" customWidth="1"/>
-    <col min="3082" max="3329" width="9.1796875" style="49"/>
-    <col min="3330" max="3330" width="39.26953125" style="49" customWidth="1"/>
-    <col min="3331" max="3331" width="10.81640625" style="49" customWidth="1"/>
-    <col min="3332" max="3334" width="9.1796875" style="49"/>
-    <col min="3335" max="3335" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3336" max="3336" width="39.54296875" style="49" customWidth="1"/>
-    <col min="3337" max="3337" width="46.1796875" style="49" customWidth="1"/>
-    <col min="3338" max="3585" width="9.1796875" style="49"/>
-    <col min="3586" max="3586" width="39.26953125" style="49" customWidth="1"/>
-    <col min="3587" max="3587" width="10.81640625" style="49" customWidth="1"/>
-    <col min="3588" max="3590" width="9.1796875" style="49"/>
-    <col min="3591" max="3591" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3592" max="3592" width="39.54296875" style="49" customWidth="1"/>
-    <col min="3593" max="3593" width="46.1796875" style="49" customWidth="1"/>
-    <col min="3594" max="3841" width="9.1796875" style="49"/>
-    <col min="3842" max="3842" width="39.26953125" style="49" customWidth="1"/>
-    <col min="3843" max="3843" width="10.81640625" style="49" customWidth="1"/>
-    <col min="3844" max="3846" width="9.1796875" style="49"/>
-    <col min="3847" max="3847" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3848" max="3848" width="39.54296875" style="49" customWidth="1"/>
-    <col min="3849" max="3849" width="46.1796875" style="49" customWidth="1"/>
-    <col min="3850" max="4097" width="9.1796875" style="49"/>
-    <col min="4098" max="4098" width="39.26953125" style="49" customWidth="1"/>
-    <col min="4099" max="4099" width="10.81640625" style="49" customWidth="1"/>
-    <col min="4100" max="4102" width="9.1796875" style="49"/>
-    <col min="4103" max="4103" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4104" max="4104" width="39.54296875" style="49" customWidth="1"/>
-    <col min="4105" max="4105" width="46.1796875" style="49" customWidth="1"/>
-    <col min="4106" max="4353" width="9.1796875" style="49"/>
-    <col min="4354" max="4354" width="39.26953125" style="49" customWidth="1"/>
-    <col min="4355" max="4355" width="10.81640625" style="49" customWidth="1"/>
-    <col min="4356" max="4358" width="9.1796875" style="49"/>
-    <col min="4359" max="4359" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4360" max="4360" width="39.54296875" style="49" customWidth="1"/>
-    <col min="4361" max="4361" width="46.1796875" style="49" customWidth="1"/>
-    <col min="4362" max="4609" width="9.1796875" style="49"/>
-    <col min="4610" max="4610" width="39.26953125" style="49" customWidth="1"/>
-    <col min="4611" max="4611" width="10.81640625" style="49" customWidth="1"/>
-    <col min="4612" max="4614" width="9.1796875" style="49"/>
-    <col min="4615" max="4615" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4616" max="4616" width="39.54296875" style="49" customWidth="1"/>
-    <col min="4617" max="4617" width="46.1796875" style="49" customWidth="1"/>
-    <col min="4618" max="4865" width="9.1796875" style="49"/>
-    <col min="4866" max="4866" width="39.26953125" style="49" customWidth="1"/>
-    <col min="4867" max="4867" width="10.81640625" style="49" customWidth="1"/>
-    <col min="4868" max="4870" width="9.1796875" style="49"/>
-    <col min="4871" max="4871" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4872" max="4872" width="39.54296875" style="49" customWidth="1"/>
-    <col min="4873" max="4873" width="46.1796875" style="49" customWidth="1"/>
-    <col min="4874" max="5121" width="9.1796875" style="49"/>
-    <col min="5122" max="5122" width="39.26953125" style="49" customWidth="1"/>
-    <col min="5123" max="5123" width="10.81640625" style="49" customWidth="1"/>
-    <col min="5124" max="5126" width="9.1796875" style="49"/>
-    <col min="5127" max="5127" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5128" max="5128" width="39.54296875" style="49" customWidth="1"/>
-    <col min="5129" max="5129" width="46.1796875" style="49" customWidth="1"/>
-    <col min="5130" max="5377" width="9.1796875" style="49"/>
-    <col min="5378" max="5378" width="39.26953125" style="49" customWidth="1"/>
-    <col min="5379" max="5379" width="10.81640625" style="49" customWidth="1"/>
-    <col min="5380" max="5382" width="9.1796875" style="49"/>
-    <col min="5383" max="5383" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5384" max="5384" width="39.54296875" style="49" customWidth="1"/>
-    <col min="5385" max="5385" width="46.1796875" style="49" customWidth="1"/>
-    <col min="5386" max="5633" width="9.1796875" style="49"/>
-    <col min="5634" max="5634" width="39.26953125" style="49" customWidth="1"/>
-    <col min="5635" max="5635" width="10.81640625" style="49" customWidth="1"/>
-    <col min="5636" max="5638" width="9.1796875" style="49"/>
-    <col min="5639" max="5639" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5640" max="5640" width="39.54296875" style="49" customWidth="1"/>
-    <col min="5641" max="5641" width="46.1796875" style="49" customWidth="1"/>
-    <col min="5642" max="5889" width="9.1796875" style="49"/>
-    <col min="5890" max="5890" width="39.26953125" style="49" customWidth="1"/>
-    <col min="5891" max="5891" width="10.81640625" style="49" customWidth="1"/>
-    <col min="5892" max="5894" width="9.1796875" style="49"/>
-    <col min="5895" max="5895" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="5896" max="5896" width="39.54296875" style="49" customWidth="1"/>
-    <col min="5897" max="5897" width="46.1796875" style="49" customWidth="1"/>
-    <col min="5898" max="6145" width="9.1796875" style="49"/>
-    <col min="6146" max="6146" width="39.26953125" style="49" customWidth="1"/>
-    <col min="6147" max="6147" width="10.81640625" style="49" customWidth="1"/>
-    <col min="6148" max="6150" width="9.1796875" style="49"/>
-    <col min="6151" max="6151" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6152" max="6152" width="39.54296875" style="49" customWidth="1"/>
-    <col min="6153" max="6153" width="46.1796875" style="49" customWidth="1"/>
-    <col min="6154" max="6401" width="9.1796875" style="49"/>
-    <col min="6402" max="6402" width="39.26953125" style="49" customWidth="1"/>
-    <col min="6403" max="6403" width="10.81640625" style="49" customWidth="1"/>
-    <col min="6404" max="6406" width="9.1796875" style="49"/>
-    <col min="6407" max="6407" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6408" max="6408" width="39.54296875" style="49" customWidth="1"/>
-    <col min="6409" max="6409" width="46.1796875" style="49" customWidth="1"/>
-    <col min="6410" max="6657" width="9.1796875" style="49"/>
-    <col min="6658" max="6658" width="39.26953125" style="49" customWidth="1"/>
-    <col min="6659" max="6659" width="10.81640625" style="49" customWidth="1"/>
-    <col min="6660" max="6662" width="9.1796875" style="49"/>
-    <col min="6663" max="6663" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6664" max="6664" width="39.54296875" style="49" customWidth="1"/>
-    <col min="6665" max="6665" width="46.1796875" style="49" customWidth="1"/>
-    <col min="6666" max="6913" width="9.1796875" style="49"/>
-    <col min="6914" max="6914" width="39.26953125" style="49" customWidth="1"/>
-    <col min="6915" max="6915" width="10.81640625" style="49" customWidth="1"/>
-    <col min="6916" max="6918" width="9.1796875" style="49"/>
-    <col min="6919" max="6919" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="6920" max="6920" width="39.54296875" style="49" customWidth="1"/>
-    <col min="6921" max="6921" width="46.1796875" style="49" customWidth="1"/>
-    <col min="6922" max="7169" width="9.1796875" style="49"/>
-    <col min="7170" max="7170" width="39.26953125" style="49" customWidth="1"/>
-    <col min="7171" max="7171" width="10.81640625" style="49" customWidth="1"/>
-    <col min="7172" max="7174" width="9.1796875" style="49"/>
-    <col min="7175" max="7175" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7176" max="7176" width="39.54296875" style="49" customWidth="1"/>
-    <col min="7177" max="7177" width="46.1796875" style="49" customWidth="1"/>
-    <col min="7178" max="7425" width="9.1796875" style="49"/>
-    <col min="7426" max="7426" width="39.26953125" style="49" customWidth="1"/>
-    <col min="7427" max="7427" width="10.81640625" style="49" customWidth="1"/>
-    <col min="7428" max="7430" width="9.1796875" style="49"/>
-    <col min="7431" max="7431" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7432" max="7432" width="39.54296875" style="49" customWidth="1"/>
-    <col min="7433" max="7433" width="46.1796875" style="49" customWidth="1"/>
-    <col min="7434" max="7681" width="9.1796875" style="49"/>
-    <col min="7682" max="7682" width="39.26953125" style="49" customWidth="1"/>
-    <col min="7683" max="7683" width="10.81640625" style="49" customWidth="1"/>
-    <col min="7684" max="7686" width="9.1796875" style="49"/>
-    <col min="7687" max="7687" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7688" max="7688" width="39.54296875" style="49" customWidth="1"/>
-    <col min="7689" max="7689" width="46.1796875" style="49" customWidth="1"/>
-    <col min="7690" max="7937" width="9.1796875" style="49"/>
-    <col min="7938" max="7938" width="39.26953125" style="49" customWidth="1"/>
-    <col min="7939" max="7939" width="10.81640625" style="49" customWidth="1"/>
-    <col min="7940" max="7942" width="9.1796875" style="49"/>
-    <col min="7943" max="7943" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="7944" max="7944" width="39.54296875" style="49" customWidth="1"/>
-    <col min="7945" max="7945" width="46.1796875" style="49" customWidth="1"/>
-    <col min="7946" max="8193" width="9.1796875" style="49"/>
-    <col min="8194" max="8194" width="39.26953125" style="49" customWidth="1"/>
-    <col min="8195" max="8195" width="10.81640625" style="49" customWidth="1"/>
-    <col min="8196" max="8198" width="9.1796875" style="49"/>
-    <col min="8199" max="8199" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="8200" max="8200" width="39.54296875" style="49" customWidth="1"/>
-    <col min="8201" max="8201" width="46.1796875" style="49" customWidth="1"/>
-    <col min="8202" max="8449" width="9.1796875" style="49"/>
-    <col min="8450" max="8450" width="39.26953125" style="49" customWidth="1"/>
-    <col min="8451" max="8451" width="10.81640625" style="49" customWidth="1"/>
-    <col min="8452" max="8454" width="9.1796875" style="49"/>
-    <col min="8455" max="8455" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="8456" max="8456" width="39.54296875" style="49" customWidth="1"/>
-    <col min="8457" max="8457" width="46.1796875" style="49" customWidth="1"/>
-    <col min="8458" max="8705" width="9.1796875" style="49"/>
-    <col min="8706" max="8706" width="39.26953125" style="49" customWidth="1"/>
-    <col min="8707" max="8707" width="10.81640625" style="49" customWidth="1"/>
-    <col min="8708" max="8710" width="9.1796875" style="49"/>
-    <col min="8711" max="8711" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="8712" max="8712" width="39.54296875" style="49" customWidth="1"/>
-    <col min="8713" max="8713" width="46.1796875" style="49" customWidth="1"/>
-    <col min="8714" max="8961" width="9.1796875" style="49"/>
-    <col min="8962" max="8962" width="39.26953125" style="49" customWidth="1"/>
-    <col min="8963" max="8963" width="10.81640625" style="49" customWidth="1"/>
-    <col min="8964" max="8966" width="9.1796875" style="49"/>
-    <col min="8967" max="8967" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="8968" max="8968" width="39.54296875" style="49" customWidth="1"/>
-    <col min="8969" max="8969" width="46.1796875" style="49" customWidth="1"/>
-    <col min="8970" max="9217" width="9.1796875" style="49"/>
-    <col min="9218" max="9218" width="39.26953125" style="49" customWidth="1"/>
-    <col min="9219" max="9219" width="10.81640625" style="49" customWidth="1"/>
-    <col min="9220" max="9222" width="9.1796875" style="49"/>
-    <col min="9223" max="9223" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9224" max="9224" width="39.54296875" style="49" customWidth="1"/>
-    <col min="9225" max="9225" width="46.1796875" style="49" customWidth="1"/>
-    <col min="9226" max="9473" width="9.1796875" style="49"/>
-    <col min="9474" max="9474" width="39.26953125" style="49" customWidth="1"/>
-    <col min="9475" max="9475" width="10.81640625" style="49" customWidth="1"/>
-    <col min="9476" max="9478" width="9.1796875" style="49"/>
-    <col min="9479" max="9479" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9480" max="9480" width="39.54296875" style="49" customWidth="1"/>
-    <col min="9481" max="9481" width="46.1796875" style="49" customWidth="1"/>
-    <col min="9482" max="9729" width="9.1796875" style="49"/>
-    <col min="9730" max="9730" width="39.26953125" style="49" customWidth="1"/>
-    <col min="9731" max="9731" width="10.81640625" style="49" customWidth="1"/>
-    <col min="9732" max="9734" width="9.1796875" style="49"/>
-    <col min="9735" max="9735" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9736" max="9736" width="39.54296875" style="49" customWidth="1"/>
-    <col min="9737" max="9737" width="46.1796875" style="49" customWidth="1"/>
-    <col min="9738" max="9985" width="9.1796875" style="49"/>
-    <col min="9986" max="9986" width="39.26953125" style="49" customWidth="1"/>
-    <col min="9987" max="9987" width="10.81640625" style="49" customWidth="1"/>
-    <col min="9988" max="9990" width="9.1796875" style="49"/>
-    <col min="9991" max="9991" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="9992" max="9992" width="39.54296875" style="49" customWidth="1"/>
-    <col min="9993" max="9993" width="46.1796875" style="49" customWidth="1"/>
-    <col min="9994" max="10241" width="9.1796875" style="49"/>
-    <col min="10242" max="10242" width="39.26953125" style="49" customWidth="1"/>
-    <col min="10243" max="10243" width="10.81640625" style="49" customWidth="1"/>
-    <col min="10244" max="10246" width="9.1796875" style="49"/>
-    <col min="10247" max="10247" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="10248" max="10248" width="39.54296875" style="49" customWidth="1"/>
-    <col min="10249" max="10249" width="46.1796875" style="49" customWidth="1"/>
-    <col min="10250" max="10497" width="9.1796875" style="49"/>
-    <col min="10498" max="10498" width="39.26953125" style="49" customWidth="1"/>
-    <col min="10499" max="10499" width="10.81640625" style="49" customWidth="1"/>
-    <col min="10500" max="10502" width="9.1796875" style="49"/>
-    <col min="10503" max="10503" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="10504" max="10504" width="39.54296875" style="49" customWidth="1"/>
-    <col min="10505" max="10505" width="46.1796875" style="49" customWidth="1"/>
-    <col min="10506" max="10753" width="9.1796875" style="49"/>
-    <col min="10754" max="10754" width="39.26953125" style="49" customWidth="1"/>
-    <col min="10755" max="10755" width="10.81640625" style="49" customWidth="1"/>
-    <col min="10756" max="10758" width="9.1796875" style="49"/>
-    <col min="10759" max="10759" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="10760" max="10760" width="39.54296875" style="49" customWidth="1"/>
-    <col min="10761" max="10761" width="46.1796875" style="49" customWidth="1"/>
-    <col min="10762" max="11009" width="9.1796875" style="49"/>
-    <col min="11010" max="11010" width="39.26953125" style="49" customWidth="1"/>
-    <col min="11011" max="11011" width="10.81640625" style="49" customWidth="1"/>
-    <col min="11012" max="11014" width="9.1796875" style="49"/>
-    <col min="11015" max="11015" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11016" max="11016" width="39.54296875" style="49" customWidth="1"/>
-    <col min="11017" max="11017" width="46.1796875" style="49" customWidth="1"/>
-    <col min="11018" max="11265" width="9.1796875" style="49"/>
-    <col min="11266" max="11266" width="39.26953125" style="49" customWidth="1"/>
-    <col min="11267" max="11267" width="10.81640625" style="49" customWidth="1"/>
-    <col min="11268" max="11270" width="9.1796875" style="49"/>
-    <col min="11271" max="11271" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11272" max="11272" width="39.54296875" style="49" customWidth="1"/>
-    <col min="11273" max="11273" width="46.1796875" style="49" customWidth="1"/>
-    <col min="11274" max="11521" width="9.1796875" style="49"/>
-    <col min="11522" max="11522" width="39.26953125" style="49" customWidth="1"/>
-    <col min="11523" max="11523" width="10.81640625" style="49" customWidth="1"/>
-    <col min="11524" max="11526" width="9.1796875" style="49"/>
-    <col min="11527" max="11527" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11528" max="11528" width="39.54296875" style="49" customWidth="1"/>
-    <col min="11529" max="11529" width="46.1796875" style="49" customWidth="1"/>
-    <col min="11530" max="11777" width="9.1796875" style="49"/>
-    <col min="11778" max="11778" width="39.26953125" style="49" customWidth="1"/>
-    <col min="11779" max="11779" width="10.81640625" style="49" customWidth="1"/>
-    <col min="11780" max="11782" width="9.1796875" style="49"/>
-    <col min="11783" max="11783" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="11784" max="11784" width="39.54296875" style="49" customWidth="1"/>
-    <col min="11785" max="11785" width="46.1796875" style="49" customWidth="1"/>
-    <col min="11786" max="12033" width="9.1796875" style="49"/>
-    <col min="12034" max="12034" width="39.26953125" style="49" customWidth="1"/>
-    <col min="12035" max="12035" width="10.81640625" style="49" customWidth="1"/>
-    <col min="12036" max="12038" width="9.1796875" style="49"/>
-    <col min="12039" max="12039" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="12040" max="12040" width="39.54296875" style="49" customWidth="1"/>
-    <col min="12041" max="12041" width="46.1796875" style="49" customWidth="1"/>
-    <col min="12042" max="12289" width="9.1796875" style="49"/>
-    <col min="12290" max="12290" width="39.26953125" style="49" customWidth="1"/>
-    <col min="12291" max="12291" width="10.81640625" style="49" customWidth="1"/>
-    <col min="12292" max="12294" width="9.1796875" style="49"/>
-    <col min="12295" max="12295" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="12296" max="12296" width="39.54296875" style="49" customWidth="1"/>
-    <col min="12297" max="12297" width="46.1796875" style="49" customWidth="1"/>
-    <col min="12298" max="12545" width="9.1796875" style="49"/>
-    <col min="12546" max="12546" width="39.26953125" style="49" customWidth="1"/>
-    <col min="12547" max="12547" width="10.81640625" style="49" customWidth="1"/>
-    <col min="12548" max="12550" width="9.1796875" style="49"/>
-    <col min="12551" max="12551" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="12552" max="12552" width="39.54296875" style="49" customWidth="1"/>
-    <col min="12553" max="12553" width="46.1796875" style="49" customWidth="1"/>
-    <col min="12554" max="12801" width="9.1796875" style="49"/>
-    <col min="12802" max="12802" width="39.26953125" style="49" customWidth="1"/>
-    <col min="12803" max="12803" width="10.81640625" style="49" customWidth="1"/>
-    <col min="12804" max="12806" width="9.1796875" style="49"/>
-    <col min="12807" max="12807" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="12808" max="12808" width="39.54296875" style="49" customWidth="1"/>
-    <col min="12809" max="12809" width="46.1796875" style="49" customWidth="1"/>
-    <col min="12810" max="13057" width="9.1796875" style="49"/>
-    <col min="13058" max="13058" width="39.26953125" style="49" customWidth="1"/>
-    <col min="13059" max="13059" width="10.81640625" style="49" customWidth="1"/>
-    <col min="13060" max="13062" width="9.1796875" style="49"/>
-    <col min="13063" max="13063" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13064" max="13064" width="39.54296875" style="49" customWidth="1"/>
-    <col min="13065" max="13065" width="46.1796875" style="49" customWidth="1"/>
-    <col min="13066" max="13313" width="9.1796875" style="49"/>
-    <col min="13314" max="13314" width="39.26953125" style="49" customWidth="1"/>
-    <col min="13315" max="13315" width="10.81640625" style="49" customWidth="1"/>
-    <col min="13316" max="13318" width="9.1796875" style="49"/>
-    <col min="13319" max="13319" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13320" max="13320" width="39.54296875" style="49" customWidth="1"/>
-    <col min="13321" max="13321" width="46.1796875" style="49" customWidth="1"/>
-    <col min="13322" max="13569" width="9.1796875" style="49"/>
-    <col min="13570" max="13570" width="39.26953125" style="49" customWidth="1"/>
-    <col min="13571" max="13571" width="10.81640625" style="49" customWidth="1"/>
-    <col min="13572" max="13574" width="9.1796875" style="49"/>
-    <col min="13575" max="13575" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13576" max="13576" width="39.54296875" style="49" customWidth="1"/>
-    <col min="13577" max="13577" width="46.1796875" style="49" customWidth="1"/>
-    <col min="13578" max="13825" width="9.1796875" style="49"/>
-    <col min="13826" max="13826" width="39.26953125" style="49" customWidth="1"/>
-    <col min="13827" max="13827" width="10.81640625" style="49" customWidth="1"/>
-    <col min="13828" max="13830" width="9.1796875" style="49"/>
-    <col min="13831" max="13831" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="13832" max="13832" width="39.54296875" style="49" customWidth="1"/>
-    <col min="13833" max="13833" width="46.1796875" style="49" customWidth="1"/>
-    <col min="13834" max="14081" width="9.1796875" style="49"/>
-    <col min="14082" max="14082" width="39.26953125" style="49" customWidth="1"/>
-    <col min="14083" max="14083" width="10.81640625" style="49" customWidth="1"/>
-    <col min="14084" max="14086" width="9.1796875" style="49"/>
-    <col min="14087" max="14087" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="14088" max="14088" width="39.54296875" style="49" customWidth="1"/>
-    <col min="14089" max="14089" width="46.1796875" style="49" customWidth="1"/>
-    <col min="14090" max="14337" width="9.1796875" style="49"/>
-    <col min="14338" max="14338" width="39.26953125" style="49" customWidth="1"/>
-    <col min="14339" max="14339" width="10.81640625" style="49" customWidth="1"/>
-    <col min="14340" max="14342" width="9.1796875" style="49"/>
-    <col min="14343" max="14343" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="14344" max="14344" width="39.54296875" style="49" customWidth="1"/>
-    <col min="14345" max="14345" width="46.1796875" style="49" customWidth="1"/>
-    <col min="14346" max="14593" width="9.1796875" style="49"/>
-    <col min="14594" max="14594" width="39.26953125" style="49" customWidth="1"/>
-    <col min="14595" max="14595" width="10.81640625" style="49" customWidth="1"/>
-    <col min="14596" max="14598" width="9.1796875" style="49"/>
-    <col min="14599" max="14599" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="14600" max="14600" width="39.54296875" style="49" customWidth="1"/>
-    <col min="14601" max="14601" width="46.1796875" style="49" customWidth="1"/>
-    <col min="14602" max="14849" width="9.1796875" style="49"/>
-    <col min="14850" max="14850" width="39.26953125" style="49" customWidth="1"/>
-    <col min="14851" max="14851" width="10.81640625" style="49" customWidth="1"/>
-    <col min="14852" max="14854" width="9.1796875" style="49"/>
-    <col min="14855" max="14855" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="14856" max="14856" width="39.54296875" style="49" customWidth="1"/>
-    <col min="14857" max="14857" width="46.1796875" style="49" customWidth="1"/>
-    <col min="14858" max="15105" width="9.1796875" style="49"/>
-    <col min="15106" max="15106" width="39.26953125" style="49" customWidth="1"/>
-    <col min="15107" max="15107" width="10.81640625" style="49" customWidth="1"/>
-    <col min="15108" max="15110" width="9.1796875" style="49"/>
-    <col min="15111" max="15111" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="15112" max="15112" width="39.54296875" style="49" customWidth="1"/>
-    <col min="15113" max="15113" width="46.1796875" style="49" customWidth="1"/>
-    <col min="15114" max="15361" width="9.1796875" style="49"/>
-    <col min="15362" max="15362" width="39.26953125" style="49" customWidth="1"/>
-    <col min="15363" max="15363" width="10.81640625" style="49" customWidth="1"/>
-    <col min="15364" max="15366" width="9.1796875" style="49"/>
-    <col min="15367" max="15367" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="15368" max="15368" width="39.54296875" style="49" customWidth="1"/>
-    <col min="15369" max="15369" width="46.1796875" style="49" customWidth="1"/>
-    <col min="15370" max="15617" width="9.1796875" style="49"/>
-    <col min="15618" max="15618" width="39.26953125" style="49" customWidth="1"/>
-    <col min="15619" max="15619" width="10.81640625" style="49" customWidth="1"/>
-    <col min="15620" max="15622" width="9.1796875" style="49"/>
-    <col min="15623" max="15623" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="15624" max="15624" width="39.54296875" style="49" customWidth="1"/>
-    <col min="15625" max="15625" width="46.1796875" style="49" customWidth="1"/>
-    <col min="15626" max="15873" width="9.1796875" style="49"/>
-    <col min="15874" max="15874" width="39.26953125" style="49" customWidth="1"/>
-    <col min="15875" max="15875" width="10.81640625" style="49" customWidth="1"/>
-    <col min="15876" max="15878" width="9.1796875" style="49"/>
-    <col min="15879" max="15879" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="15880" max="15880" width="39.54296875" style="49" customWidth="1"/>
-    <col min="15881" max="15881" width="46.1796875" style="49" customWidth="1"/>
-    <col min="15882" max="16129" width="9.1796875" style="49"/>
-    <col min="16130" max="16130" width="39.26953125" style="49" customWidth="1"/>
-    <col min="16131" max="16131" width="10.81640625" style="49" customWidth="1"/>
-    <col min="16132" max="16134" width="9.1796875" style="49"/>
-    <col min="16135" max="16135" width="10.7265625" style="49" bestFit="1" customWidth="1"/>
-    <col min="16136" max="16136" width="39.54296875" style="49" customWidth="1"/>
-    <col min="16137" max="16137" width="46.1796875" style="49" customWidth="1"/>
-    <col min="16138" max="16384" width="9.1796875" style="49"/>
+    <col min="1" max="1" width="9.140625" style="48"/>
+    <col min="2" max="2" width="39.28515625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="48" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="48"/>
+    <col min="7" max="7" width="10.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.5703125" style="46" customWidth="1"/>
+    <col min="9" max="9" width="46.140625" style="49" customWidth="1"/>
+    <col min="10" max="257" width="9.140625" style="49"/>
+    <col min="258" max="258" width="39.28515625" style="49" customWidth="1"/>
+    <col min="259" max="259" width="10.85546875" style="49" customWidth="1"/>
+    <col min="260" max="262" width="9.140625" style="49"/>
+    <col min="263" max="263" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="39.5703125" style="49" customWidth="1"/>
+    <col min="265" max="265" width="46.140625" style="49" customWidth="1"/>
+    <col min="266" max="513" width="9.140625" style="49"/>
+    <col min="514" max="514" width="39.28515625" style="49" customWidth="1"/>
+    <col min="515" max="515" width="10.85546875" style="49" customWidth="1"/>
+    <col min="516" max="518" width="9.140625" style="49"/>
+    <col min="519" max="519" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="39.5703125" style="49" customWidth="1"/>
+    <col min="521" max="521" width="46.140625" style="49" customWidth="1"/>
+    <col min="522" max="769" width="9.140625" style="49"/>
+    <col min="770" max="770" width="39.28515625" style="49" customWidth="1"/>
+    <col min="771" max="771" width="10.85546875" style="49" customWidth="1"/>
+    <col min="772" max="774" width="9.140625" style="49"/>
+    <col min="775" max="775" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="39.5703125" style="49" customWidth="1"/>
+    <col min="777" max="777" width="46.140625" style="49" customWidth="1"/>
+    <col min="778" max="1025" width="9.140625" style="49"/>
+    <col min="1026" max="1026" width="39.28515625" style="49" customWidth="1"/>
+    <col min="1027" max="1027" width="10.85546875" style="49" customWidth="1"/>
+    <col min="1028" max="1030" width="9.140625" style="49"/>
+    <col min="1031" max="1031" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="39.5703125" style="49" customWidth="1"/>
+    <col min="1033" max="1033" width="46.140625" style="49" customWidth="1"/>
+    <col min="1034" max="1281" width="9.140625" style="49"/>
+    <col min="1282" max="1282" width="39.28515625" style="49" customWidth="1"/>
+    <col min="1283" max="1283" width="10.85546875" style="49" customWidth="1"/>
+    <col min="1284" max="1286" width="9.140625" style="49"/>
+    <col min="1287" max="1287" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="39.5703125" style="49" customWidth="1"/>
+    <col min="1289" max="1289" width="46.140625" style="49" customWidth="1"/>
+    <col min="1290" max="1537" width="9.140625" style="49"/>
+    <col min="1538" max="1538" width="39.28515625" style="49" customWidth="1"/>
+    <col min="1539" max="1539" width="10.85546875" style="49" customWidth="1"/>
+    <col min="1540" max="1542" width="9.140625" style="49"/>
+    <col min="1543" max="1543" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="39.5703125" style="49" customWidth="1"/>
+    <col min="1545" max="1545" width="46.140625" style="49" customWidth="1"/>
+    <col min="1546" max="1793" width="9.140625" style="49"/>
+    <col min="1794" max="1794" width="39.28515625" style="49" customWidth="1"/>
+    <col min="1795" max="1795" width="10.85546875" style="49" customWidth="1"/>
+    <col min="1796" max="1798" width="9.140625" style="49"/>
+    <col min="1799" max="1799" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="39.5703125" style="49" customWidth="1"/>
+    <col min="1801" max="1801" width="46.140625" style="49" customWidth="1"/>
+    <col min="1802" max="2049" width="9.140625" style="49"/>
+    <col min="2050" max="2050" width="39.28515625" style="49" customWidth="1"/>
+    <col min="2051" max="2051" width="10.85546875" style="49" customWidth="1"/>
+    <col min="2052" max="2054" width="9.140625" style="49"/>
+    <col min="2055" max="2055" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="39.5703125" style="49" customWidth="1"/>
+    <col min="2057" max="2057" width="46.140625" style="49" customWidth="1"/>
+    <col min="2058" max="2305" width="9.140625" style="49"/>
+    <col min="2306" max="2306" width="39.28515625" style="49" customWidth="1"/>
+    <col min="2307" max="2307" width="10.85546875" style="49" customWidth="1"/>
+    <col min="2308" max="2310" width="9.140625" style="49"/>
+    <col min="2311" max="2311" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="39.5703125" style="49" customWidth="1"/>
+    <col min="2313" max="2313" width="46.140625" style="49" customWidth="1"/>
+    <col min="2314" max="2561" width="9.140625" style="49"/>
+    <col min="2562" max="2562" width="39.28515625" style="49" customWidth="1"/>
+    <col min="2563" max="2563" width="10.85546875" style="49" customWidth="1"/>
+    <col min="2564" max="2566" width="9.140625" style="49"/>
+    <col min="2567" max="2567" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="39.5703125" style="49" customWidth="1"/>
+    <col min="2569" max="2569" width="46.140625" style="49" customWidth="1"/>
+    <col min="2570" max="2817" width="9.140625" style="49"/>
+    <col min="2818" max="2818" width="39.28515625" style="49" customWidth="1"/>
+    <col min="2819" max="2819" width="10.85546875" style="49" customWidth="1"/>
+    <col min="2820" max="2822" width="9.140625" style="49"/>
+    <col min="2823" max="2823" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="39.5703125" style="49" customWidth="1"/>
+    <col min="2825" max="2825" width="46.140625" style="49" customWidth="1"/>
+    <col min="2826" max="3073" width="9.140625" style="49"/>
+    <col min="3074" max="3074" width="39.28515625" style="49" customWidth="1"/>
+    <col min="3075" max="3075" width="10.85546875" style="49" customWidth="1"/>
+    <col min="3076" max="3078" width="9.140625" style="49"/>
+    <col min="3079" max="3079" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="39.5703125" style="49" customWidth="1"/>
+    <col min="3081" max="3081" width="46.140625" style="49" customWidth="1"/>
+    <col min="3082" max="3329" width="9.140625" style="49"/>
+    <col min="3330" max="3330" width="39.28515625" style="49" customWidth="1"/>
+    <col min="3331" max="3331" width="10.85546875" style="49" customWidth="1"/>
+    <col min="3332" max="3334" width="9.140625" style="49"/>
+    <col min="3335" max="3335" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="39.5703125" style="49" customWidth="1"/>
+    <col min="3337" max="3337" width="46.140625" style="49" customWidth="1"/>
+    <col min="3338" max="3585" width="9.140625" style="49"/>
+    <col min="3586" max="3586" width="39.28515625" style="49" customWidth="1"/>
+    <col min="3587" max="3587" width="10.85546875" style="49" customWidth="1"/>
+    <col min="3588" max="3590" width="9.140625" style="49"/>
+    <col min="3591" max="3591" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="39.5703125" style="49" customWidth="1"/>
+    <col min="3593" max="3593" width="46.140625" style="49" customWidth="1"/>
+    <col min="3594" max="3841" width="9.140625" style="49"/>
+    <col min="3842" max="3842" width="39.28515625" style="49" customWidth="1"/>
+    <col min="3843" max="3843" width="10.85546875" style="49" customWidth="1"/>
+    <col min="3844" max="3846" width="9.140625" style="49"/>
+    <col min="3847" max="3847" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="39.5703125" style="49" customWidth="1"/>
+    <col min="3849" max="3849" width="46.140625" style="49" customWidth="1"/>
+    <col min="3850" max="4097" width="9.140625" style="49"/>
+    <col min="4098" max="4098" width="39.28515625" style="49" customWidth="1"/>
+    <col min="4099" max="4099" width="10.85546875" style="49" customWidth="1"/>
+    <col min="4100" max="4102" width="9.140625" style="49"/>
+    <col min="4103" max="4103" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="39.5703125" style="49" customWidth="1"/>
+    <col min="4105" max="4105" width="46.140625" style="49" customWidth="1"/>
+    <col min="4106" max="4353" width="9.140625" style="49"/>
+    <col min="4354" max="4354" width="39.28515625" style="49" customWidth="1"/>
+    <col min="4355" max="4355" width="10.85546875" style="49" customWidth="1"/>
+    <col min="4356" max="4358" width="9.140625" style="49"/>
+    <col min="4359" max="4359" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="39.5703125" style="49" customWidth="1"/>
+    <col min="4361" max="4361" width="46.140625" style="49" customWidth="1"/>
+    <col min="4362" max="4609" width="9.140625" style="49"/>
+    <col min="4610" max="4610" width="39.28515625" style="49" customWidth="1"/>
+    <col min="4611" max="4611" width="10.85546875" style="49" customWidth="1"/>
+    <col min="4612" max="4614" width="9.140625" style="49"/>
+    <col min="4615" max="4615" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="39.5703125" style="49" customWidth="1"/>
+    <col min="4617" max="4617" width="46.140625" style="49" customWidth="1"/>
+    <col min="4618" max="4865" width="9.140625" style="49"/>
+    <col min="4866" max="4866" width="39.28515625" style="49" customWidth="1"/>
+    <col min="4867" max="4867" width="10.85546875" style="49" customWidth="1"/>
+    <col min="4868" max="4870" width="9.140625" style="49"/>
+    <col min="4871" max="4871" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="39.5703125" style="49" customWidth="1"/>
+    <col min="4873" max="4873" width="46.140625" style="49" customWidth="1"/>
+    <col min="4874" max="5121" width="9.140625" style="49"/>
+    <col min="5122" max="5122" width="39.28515625" style="49" customWidth="1"/>
+    <col min="5123" max="5123" width="10.85546875" style="49" customWidth="1"/>
+    <col min="5124" max="5126" width="9.140625" style="49"/>
+    <col min="5127" max="5127" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="39.5703125" style="49" customWidth="1"/>
+    <col min="5129" max="5129" width="46.140625" style="49" customWidth="1"/>
+    <col min="5130" max="5377" width="9.140625" style="49"/>
+    <col min="5378" max="5378" width="39.28515625" style="49" customWidth="1"/>
+    <col min="5379" max="5379" width="10.85546875" style="49" customWidth="1"/>
+    <col min="5380" max="5382" width="9.140625" style="49"/>
+    <col min="5383" max="5383" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="39.5703125" style="49" customWidth="1"/>
+    <col min="5385" max="5385" width="46.140625" style="49" customWidth="1"/>
+    <col min="5386" max="5633" width="9.140625" style="49"/>
+    <col min="5634" max="5634" width="39.28515625" style="49" customWidth="1"/>
+    <col min="5635" max="5635" width="10.85546875" style="49" customWidth="1"/>
+    <col min="5636" max="5638" width="9.140625" style="49"/>
+    <col min="5639" max="5639" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="39.5703125" style="49" customWidth="1"/>
+    <col min="5641" max="5641" width="46.140625" style="49" customWidth="1"/>
+    <col min="5642" max="5889" width="9.140625" style="49"/>
+    <col min="5890" max="5890" width="39.28515625" style="49" customWidth="1"/>
+    <col min="5891" max="5891" width="10.85546875" style="49" customWidth="1"/>
+    <col min="5892" max="5894" width="9.140625" style="49"/>
+    <col min="5895" max="5895" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="39.5703125" style="49" customWidth="1"/>
+    <col min="5897" max="5897" width="46.140625" style="49" customWidth="1"/>
+    <col min="5898" max="6145" width="9.140625" style="49"/>
+    <col min="6146" max="6146" width="39.28515625" style="49" customWidth="1"/>
+    <col min="6147" max="6147" width="10.85546875" style="49" customWidth="1"/>
+    <col min="6148" max="6150" width="9.140625" style="49"/>
+    <col min="6151" max="6151" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="39.5703125" style="49" customWidth="1"/>
+    <col min="6153" max="6153" width="46.140625" style="49" customWidth="1"/>
+    <col min="6154" max="6401" width="9.140625" style="49"/>
+    <col min="6402" max="6402" width="39.28515625" style="49" customWidth="1"/>
+    <col min="6403" max="6403" width="10.85546875" style="49" customWidth="1"/>
+    <col min="6404" max="6406" width="9.140625" style="49"/>
+    <col min="6407" max="6407" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="39.5703125" style="49" customWidth="1"/>
+    <col min="6409" max="6409" width="46.140625" style="49" customWidth="1"/>
+    <col min="6410" max="6657" width="9.140625" style="49"/>
+    <col min="6658" max="6658" width="39.28515625" style="49" customWidth="1"/>
+    <col min="6659" max="6659" width="10.85546875" style="49" customWidth="1"/>
+    <col min="6660" max="6662" width="9.140625" style="49"/>
+    <col min="6663" max="6663" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="39.5703125" style="49" customWidth="1"/>
+    <col min="6665" max="6665" width="46.140625" style="49" customWidth="1"/>
+    <col min="6666" max="6913" width="9.140625" style="49"/>
+    <col min="6914" max="6914" width="39.28515625" style="49" customWidth="1"/>
+    <col min="6915" max="6915" width="10.85546875" style="49" customWidth="1"/>
+    <col min="6916" max="6918" width="9.140625" style="49"/>
+    <col min="6919" max="6919" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="39.5703125" style="49" customWidth="1"/>
+    <col min="6921" max="6921" width="46.140625" style="49" customWidth="1"/>
+    <col min="6922" max="7169" width="9.140625" style="49"/>
+    <col min="7170" max="7170" width="39.28515625" style="49" customWidth="1"/>
+    <col min="7171" max="7171" width="10.85546875" style="49" customWidth="1"/>
+    <col min="7172" max="7174" width="9.140625" style="49"/>
+    <col min="7175" max="7175" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="39.5703125" style="49" customWidth="1"/>
+    <col min="7177" max="7177" width="46.140625" style="49" customWidth="1"/>
+    <col min="7178" max="7425" width="9.140625" style="49"/>
+    <col min="7426" max="7426" width="39.28515625" style="49" customWidth="1"/>
+    <col min="7427" max="7427" width="10.85546875" style="49" customWidth="1"/>
+    <col min="7428" max="7430" width="9.140625" style="49"/>
+    <col min="7431" max="7431" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="39.5703125" style="49" customWidth="1"/>
+    <col min="7433" max="7433" width="46.140625" style="49" customWidth="1"/>
+    <col min="7434" max="7681" width="9.140625" style="49"/>
+    <col min="7682" max="7682" width="39.28515625" style="49" customWidth="1"/>
+    <col min="7683" max="7683" width="10.85546875" style="49" customWidth="1"/>
+    <col min="7684" max="7686" width="9.140625" style="49"/>
+    <col min="7687" max="7687" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="39.5703125" style="49" customWidth="1"/>
+    <col min="7689" max="7689" width="46.140625" style="49" customWidth="1"/>
+    <col min="7690" max="7937" width="9.140625" style="49"/>
+    <col min="7938" max="7938" width="39.28515625" style="49" customWidth="1"/>
+    <col min="7939" max="7939" width="10.85546875" style="49" customWidth="1"/>
+    <col min="7940" max="7942" width="9.140625" style="49"/>
+    <col min="7943" max="7943" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="39.5703125" style="49" customWidth="1"/>
+    <col min="7945" max="7945" width="46.140625" style="49" customWidth="1"/>
+    <col min="7946" max="8193" width="9.140625" style="49"/>
+    <col min="8194" max="8194" width="39.28515625" style="49" customWidth="1"/>
+    <col min="8195" max="8195" width="10.85546875" style="49" customWidth="1"/>
+    <col min="8196" max="8198" width="9.140625" style="49"/>
+    <col min="8199" max="8199" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="39.5703125" style="49" customWidth="1"/>
+    <col min="8201" max="8201" width="46.140625" style="49" customWidth="1"/>
+    <col min="8202" max="8449" width="9.140625" style="49"/>
+    <col min="8450" max="8450" width="39.28515625" style="49" customWidth="1"/>
+    <col min="8451" max="8451" width="10.85546875" style="49" customWidth="1"/>
+    <col min="8452" max="8454" width="9.140625" style="49"/>
+    <col min="8455" max="8455" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="39.5703125" style="49" customWidth="1"/>
+    <col min="8457" max="8457" width="46.140625" style="49" customWidth="1"/>
+    <col min="8458" max="8705" width="9.140625" style="49"/>
+    <col min="8706" max="8706" width="39.28515625" style="49" customWidth="1"/>
+    <col min="8707" max="8707" width="10.85546875" style="49" customWidth="1"/>
+    <col min="8708" max="8710" width="9.140625" style="49"/>
+    <col min="8711" max="8711" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="39.5703125" style="49" customWidth="1"/>
+    <col min="8713" max="8713" width="46.140625" style="49" customWidth="1"/>
+    <col min="8714" max="8961" width="9.140625" style="49"/>
+    <col min="8962" max="8962" width="39.28515625" style="49" customWidth="1"/>
+    <col min="8963" max="8963" width="10.85546875" style="49" customWidth="1"/>
+    <col min="8964" max="8966" width="9.140625" style="49"/>
+    <col min="8967" max="8967" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="39.5703125" style="49" customWidth="1"/>
+    <col min="8969" max="8969" width="46.140625" style="49" customWidth="1"/>
+    <col min="8970" max="9217" width="9.140625" style="49"/>
+    <col min="9218" max="9218" width="39.28515625" style="49" customWidth="1"/>
+    <col min="9219" max="9219" width="10.85546875" style="49" customWidth="1"/>
+    <col min="9220" max="9222" width="9.140625" style="49"/>
+    <col min="9223" max="9223" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="39.5703125" style="49" customWidth="1"/>
+    <col min="9225" max="9225" width="46.140625" style="49" customWidth="1"/>
+    <col min="9226" max="9473" width="9.140625" style="49"/>
+    <col min="9474" max="9474" width="39.28515625" style="49" customWidth="1"/>
+    <col min="9475" max="9475" width="10.85546875" style="49" customWidth="1"/>
+    <col min="9476" max="9478" width="9.140625" style="49"/>
+    <col min="9479" max="9479" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="39.5703125" style="49" customWidth="1"/>
+    <col min="9481" max="9481" width="46.140625" style="49" customWidth="1"/>
+    <col min="9482" max="9729" width="9.140625" style="49"/>
+    <col min="9730" max="9730" width="39.28515625" style="49" customWidth="1"/>
+    <col min="9731" max="9731" width="10.85546875" style="49" customWidth="1"/>
+    <col min="9732" max="9734" width="9.140625" style="49"/>
+    <col min="9735" max="9735" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="39.5703125" style="49" customWidth="1"/>
+    <col min="9737" max="9737" width="46.140625" style="49" customWidth="1"/>
+    <col min="9738" max="9985" width="9.140625" style="49"/>
+    <col min="9986" max="9986" width="39.28515625" style="49" customWidth="1"/>
+    <col min="9987" max="9987" width="10.85546875" style="49" customWidth="1"/>
+    <col min="9988" max="9990" width="9.140625" style="49"/>
+    <col min="9991" max="9991" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="39.5703125" style="49" customWidth="1"/>
+    <col min="9993" max="9993" width="46.140625" style="49" customWidth="1"/>
+    <col min="9994" max="10241" width="9.140625" style="49"/>
+    <col min="10242" max="10242" width="39.28515625" style="49" customWidth="1"/>
+    <col min="10243" max="10243" width="10.85546875" style="49" customWidth="1"/>
+    <col min="10244" max="10246" width="9.140625" style="49"/>
+    <col min="10247" max="10247" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="39.5703125" style="49" customWidth="1"/>
+    <col min="10249" max="10249" width="46.140625" style="49" customWidth="1"/>
+    <col min="10250" max="10497" width="9.140625" style="49"/>
+    <col min="10498" max="10498" width="39.28515625" style="49" customWidth="1"/>
+    <col min="10499" max="10499" width="10.85546875" style="49" customWidth="1"/>
+    <col min="10500" max="10502" width="9.140625" style="49"/>
+    <col min="10503" max="10503" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="39.5703125" style="49" customWidth="1"/>
+    <col min="10505" max="10505" width="46.140625" style="49" customWidth="1"/>
+    <col min="10506" max="10753" width="9.140625" style="49"/>
+    <col min="10754" max="10754" width="39.28515625" style="49" customWidth="1"/>
+    <col min="10755" max="10755" width="10.85546875" style="49" customWidth="1"/>
+    <col min="10756" max="10758" width="9.140625" style="49"/>
+    <col min="10759" max="10759" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="39.5703125" style="49" customWidth="1"/>
+    <col min="10761" max="10761" width="46.140625" style="49" customWidth="1"/>
+    <col min="10762" max="11009" width="9.140625" style="49"/>
+    <col min="11010" max="11010" width="39.28515625" style="49" customWidth="1"/>
+    <col min="11011" max="11011" width="10.85546875" style="49" customWidth="1"/>
+    <col min="11012" max="11014" width="9.140625" style="49"/>
+    <col min="11015" max="11015" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="39.5703125" style="49" customWidth="1"/>
+    <col min="11017" max="11017" width="46.140625" style="49" customWidth="1"/>
+    <col min="11018" max="11265" width="9.140625" style="49"/>
+    <col min="11266" max="11266" width="39.28515625" style="49" customWidth="1"/>
+    <col min="11267" max="11267" width="10.85546875" style="49" customWidth="1"/>
+    <col min="11268" max="11270" width="9.140625" style="49"/>
+    <col min="11271" max="11271" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="39.5703125" style="49" customWidth="1"/>
+    <col min="11273" max="11273" width="46.140625" style="49" customWidth="1"/>
+    <col min="11274" max="11521" width="9.140625" style="49"/>
+    <col min="11522" max="11522" width="39.28515625" style="49" customWidth="1"/>
+    <col min="11523" max="11523" width="10.85546875" style="49" customWidth="1"/>
+    <col min="11524" max="11526" width="9.140625" style="49"/>
+    <col min="11527" max="11527" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="39.5703125" style="49" customWidth="1"/>
+    <col min="11529" max="11529" width="46.140625" style="49" customWidth="1"/>
+    <col min="11530" max="11777" width="9.140625" style="49"/>
+    <col min="11778" max="11778" width="39.28515625" style="49" customWidth="1"/>
+    <col min="11779" max="11779" width="10.85546875" style="49" customWidth="1"/>
+    <col min="11780" max="11782" width="9.140625" style="49"/>
+    <col min="11783" max="11783" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="39.5703125" style="49" customWidth="1"/>
+    <col min="11785" max="11785" width="46.140625" style="49" customWidth="1"/>
+    <col min="11786" max="12033" width="9.140625" style="49"/>
+    <col min="12034" max="12034" width="39.28515625" style="49" customWidth="1"/>
+    <col min="12035" max="12035" width="10.85546875" style="49" customWidth="1"/>
+    <col min="12036" max="12038" width="9.140625" style="49"/>
+    <col min="12039" max="12039" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="39.5703125" style="49" customWidth="1"/>
+    <col min="12041" max="12041" width="46.140625" style="49" customWidth="1"/>
+    <col min="12042" max="12289" width="9.140625" style="49"/>
+    <col min="12290" max="12290" width="39.28515625" style="49" customWidth="1"/>
+    <col min="12291" max="12291" width="10.85546875" style="49" customWidth="1"/>
+    <col min="12292" max="12294" width="9.140625" style="49"/>
+    <col min="12295" max="12295" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="39.5703125" style="49" customWidth="1"/>
+    <col min="12297" max="12297" width="46.140625" style="49" customWidth="1"/>
+    <col min="12298" max="12545" width="9.140625" style="49"/>
+    <col min="12546" max="12546" width="39.28515625" style="49" customWidth="1"/>
+    <col min="12547" max="12547" width="10.85546875" style="49" customWidth="1"/>
+    <col min="12548" max="12550" width="9.140625" style="49"/>
+    <col min="12551" max="12551" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="39.5703125" style="49" customWidth="1"/>
+    <col min="12553" max="12553" width="46.140625" style="49" customWidth="1"/>
+    <col min="12554" max="12801" width="9.140625" style="49"/>
+    <col min="12802" max="12802" width="39.28515625" style="49" customWidth="1"/>
+    <col min="12803" max="12803" width="10.85546875" style="49" customWidth="1"/>
+    <col min="12804" max="12806" width="9.140625" style="49"/>
+    <col min="12807" max="12807" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="39.5703125" style="49" customWidth="1"/>
+    <col min="12809" max="12809" width="46.140625" style="49" customWidth="1"/>
+    <col min="12810" max="13057" width="9.140625" style="49"/>
+    <col min="13058" max="13058" width="39.28515625" style="49" customWidth="1"/>
+    <col min="13059" max="13059" width="10.85546875" style="49" customWidth="1"/>
+    <col min="13060" max="13062" width="9.140625" style="49"/>
+    <col min="13063" max="13063" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="39.5703125" style="49" customWidth="1"/>
+    <col min="13065" max="13065" width="46.140625" style="49" customWidth="1"/>
+    <col min="13066" max="13313" width="9.140625" style="49"/>
+    <col min="13314" max="13314" width="39.28515625" style="49" customWidth="1"/>
+    <col min="13315" max="13315" width="10.85546875" style="49" customWidth="1"/>
+    <col min="13316" max="13318" width="9.140625" style="49"/>
+    <col min="13319" max="13319" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="39.5703125" style="49" customWidth="1"/>
+    <col min="13321" max="13321" width="46.140625" style="49" customWidth="1"/>
+    <col min="13322" max="13569" width="9.140625" style="49"/>
+    <col min="13570" max="13570" width="39.28515625" style="49" customWidth="1"/>
+    <col min="13571" max="13571" width="10.85546875" style="49" customWidth="1"/>
+    <col min="13572" max="13574" width="9.140625" style="49"/>
+    <col min="13575" max="13575" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="39.5703125" style="49" customWidth="1"/>
+    <col min="13577" max="13577" width="46.140625" style="49" customWidth="1"/>
+    <col min="13578" max="13825" width="9.140625" style="49"/>
+    <col min="13826" max="13826" width="39.28515625" style="49" customWidth="1"/>
+    <col min="13827" max="13827" width="10.85546875" style="49" customWidth="1"/>
+    <col min="13828" max="13830" width="9.140625" style="49"/>
+    <col min="13831" max="13831" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="39.5703125" style="49" customWidth="1"/>
+    <col min="13833" max="13833" width="46.140625" style="49" customWidth="1"/>
+    <col min="13834" max="14081" width="9.140625" style="49"/>
+    <col min="14082" max="14082" width="39.28515625" style="49" customWidth="1"/>
+    <col min="14083" max="14083" width="10.85546875" style="49" customWidth="1"/>
+    <col min="14084" max="14086" width="9.140625" style="49"/>
+    <col min="14087" max="14087" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="39.5703125" style="49" customWidth="1"/>
+    <col min="14089" max="14089" width="46.140625" style="49" customWidth="1"/>
+    <col min="14090" max="14337" width="9.140625" style="49"/>
+    <col min="14338" max="14338" width="39.28515625" style="49" customWidth="1"/>
+    <col min="14339" max="14339" width="10.85546875" style="49" customWidth="1"/>
+    <col min="14340" max="14342" width="9.140625" style="49"/>
+    <col min="14343" max="14343" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="39.5703125" style="49" customWidth="1"/>
+    <col min="14345" max="14345" width="46.140625" style="49" customWidth="1"/>
+    <col min="14346" max="14593" width="9.140625" style="49"/>
+    <col min="14594" max="14594" width="39.28515625" style="49" customWidth="1"/>
+    <col min="14595" max="14595" width="10.85546875" style="49" customWidth="1"/>
+    <col min="14596" max="14598" width="9.140625" style="49"/>
+    <col min="14599" max="14599" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="39.5703125" style="49" customWidth="1"/>
+    <col min="14601" max="14601" width="46.140625" style="49" customWidth="1"/>
+    <col min="14602" max="14849" width="9.140625" style="49"/>
+    <col min="14850" max="14850" width="39.28515625" style="49" customWidth="1"/>
+    <col min="14851" max="14851" width="10.85546875" style="49" customWidth="1"/>
+    <col min="14852" max="14854" width="9.140625" style="49"/>
+    <col min="14855" max="14855" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="39.5703125" style="49" customWidth="1"/>
+    <col min="14857" max="14857" width="46.140625" style="49" customWidth="1"/>
+    <col min="14858" max="15105" width="9.140625" style="49"/>
+    <col min="15106" max="15106" width="39.28515625" style="49" customWidth="1"/>
+    <col min="15107" max="15107" width="10.85546875" style="49" customWidth="1"/>
+    <col min="15108" max="15110" width="9.140625" style="49"/>
+    <col min="15111" max="15111" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="39.5703125" style="49" customWidth="1"/>
+    <col min="15113" max="15113" width="46.140625" style="49" customWidth="1"/>
+    <col min="15114" max="15361" width="9.140625" style="49"/>
+    <col min="15362" max="15362" width="39.28515625" style="49" customWidth="1"/>
+    <col min="15363" max="15363" width="10.85546875" style="49" customWidth="1"/>
+    <col min="15364" max="15366" width="9.140625" style="49"/>
+    <col min="15367" max="15367" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="39.5703125" style="49" customWidth="1"/>
+    <col min="15369" max="15369" width="46.140625" style="49" customWidth="1"/>
+    <col min="15370" max="15617" width="9.140625" style="49"/>
+    <col min="15618" max="15618" width="39.28515625" style="49" customWidth="1"/>
+    <col min="15619" max="15619" width="10.85546875" style="49" customWidth="1"/>
+    <col min="15620" max="15622" width="9.140625" style="49"/>
+    <col min="15623" max="15623" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="39.5703125" style="49" customWidth="1"/>
+    <col min="15625" max="15625" width="46.140625" style="49" customWidth="1"/>
+    <col min="15626" max="15873" width="9.140625" style="49"/>
+    <col min="15874" max="15874" width="39.28515625" style="49" customWidth="1"/>
+    <col min="15875" max="15875" width="10.85546875" style="49" customWidth="1"/>
+    <col min="15876" max="15878" width="9.140625" style="49"/>
+    <col min="15879" max="15879" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="39.5703125" style="49" customWidth="1"/>
+    <col min="15881" max="15881" width="46.140625" style="49" customWidth="1"/>
+    <col min="15882" max="16129" width="9.140625" style="49"/>
+    <col min="16130" max="16130" width="39.28515625" style="49" customWidth="1"/>
+    <col min="16131" max="16131" width="10.85546875" style="49" customWidth="1"/>
+    <col min="16132" max="16134" width="9.140625" style="49"/>
+    <col min="16135" max="16135" width="10.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="39.5703125" style="49" customWidth="1"/>
+    <col min="16137" max="16137" width="46.140625" style="49" customWidth="1"/>
+    <col min="16138" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
@@ -3580,10 +3501,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D2" s="50"/>
     </row>
-    <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="51" t="s">
         <v>27</v>
       </c>
@@ -3612,7 +3533,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="53">
         <v>1</v>
       </c>
@@ -3639,7 +3560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
         <v>2</v>
       </c>
@@ -3666,7 +3587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
         <v>3</v>
       </c>
@@ -3693,7 +3614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
         <v>4</v>
       </c>
@@ -3720,7 +3641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
         <v>5</v>
       </c>
@@ -3747,7 +3668,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
         <v>6</v>
       </c>
@@ -3774,7 +3695,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
         <v>7</v>
       </c>
@@ -3802,7 +3723,7 @@
       </c>
       <c r="K11" s="57"/>
     </row>
-    <row r="12" spans="1:11" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
         <v>8</v>
       </c>
@@ -3829,7 +3750,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
         <v>9</v>
       </c>
@@ -3856,7 +3777,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="50" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="51" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
         <v>10</v>
       </c>
@@ -3883,7 +3804,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="53">
         <v>8</v>
       </c>
@@ -3900,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="53">
-        <v>-11</v>
+        <v>1</v>
       </c>
       <c r="G15" s="55" t="s">
         <v>35</v>
@@ -3910,7 +3831,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
         <v>9</v>
       </c>
@@ -3927,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="53">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="G16" s="55" t="s">
         <v>35</v>
@@ -3937,7 +3858,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="53">
         <v>10</v>
       </c>
@@ -3954,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="53">
-        <v>-17</v>
+        <v>7</v>
       </c>
       <c r="G17" s="55" t="s">
         <v>35</v>
@@ -3964,7 +3885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="53">
         <v>11</v>
       </c>
@@ -3981,7 +3902,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="53">
-        <v>-20</v>
+        <v>7</v>
       </c>
       <c r="G18" s="55" t="s">
         <v>35</v>
@@ -3991,7 +3912,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="53">
         <v>12</v>
       </c>
@@ -4008,7 +3929,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="53">
-        <v>-23</v>
+        <v>7</v>
       </c>
       <c r="G19" s="55" t="s">
         <v>35</v>
@@ -4018,7 +3939,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="53">
         <v>13</v>
       </c>
@@ -4035,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="53">
-        <v>-26</v>
+        <v>7</v>
       </c>
       <c r="G20" s="55" t="s">
         <v>35</v>
@@ -4045,7 +3966,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="53">
         <v>14</v>
       </c>
@@ -4062,7 +3983,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="53">
-        <v>-29</v>
+        <v>7</v>
       </c>
       <c r="G21" s="55" t="s">
         <v>35</v>
@@ -4072,7 +3993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="53">
         <v>15</v>
       </c>
@@ -4089,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="53">
-        <v>-32</v>
+        <v>7</v>
       </c>
       <c r="G22" s="55" t="s">
         <v>35</v>
@@ -4099,7 +4020,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="53">
         <v>16</v>
       </c>
@@ -4116,7 +4037,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="53">
-        <v>-35</v>
+        <v>7</v>
       </c>
       <c r="G23" s="55" t="s">
         <v>35</v>
@@ -4126,7 +4047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="53">
         <v>17</v>
       </c>
@@ -4143,7 +4064,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="53">
-        <v>-38</v>
+        <v>7</v>
       </c>
       <c r="G24" s="55" t="s">
         <v>35</v>
@@ -4153,7 +4074,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="53">
         <v>18</v>
       </c>
@@ -4168,7 +4089,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="53">
-        <v>-41</v>
+        <v>7</v>
       </c>
       <c r="G25" s="55" t="s">
         <v>35</v>
@@ -4178,7 +4099,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="53">
         <v>19</v>
       </c>
@@ -4193,7 +4114,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="53">
-        <v>-44</v>
+        <v>7</v>
       </c>
       <c r="G26" s="55" t="s">
         <v>35</v>
@@ -4203,7 +4124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="53">
         <v>20</v>
       </c>
@@ -4218,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="F27" s="53">
-        <v>-47</v>
+        <v>7</v>
       </c>
       <c r="G27" s="55" t="s">
         <v>35</v>
@@ -4228,7 +4149,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="53">
         <v>21</v>
       </c>
@@ -4243,7 +4164,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="53">
-        <v>-50</v>
+        <v>7</v>
       </c>
       <c r="G28" s="55" t="s">
         <v>35</v>
@@ -4253,7 +4174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="53">
         <v>22</v>
       </c>
@@ -4268,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="53">
-        <v>-53</v>
+        <v>7</v>
       </c>
       <c r="G29" s="55" t="s">
         <v>35</v>
@@ -4284,24 +4205,24 @@
     <sortCondition ref="C5"/>
   </sortState>
   <conditionalFormatting sqref="A4:I4 I8:I29 A5:H135">
-    <cfRule type="expression" dxfId="23" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="37" stopIfTrue="1">
       <formula>$C4="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="38" stopIfTrue="1">
       <formula>$C4="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="39" stopIfTrue="1">
       <formula>$C4="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="expression" dxfId="14" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="31" stopIfTrue="1">
       <formula>$C5="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="32" stopIfTrue="1">
       <formula>$C5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="33" stopIfTrue="1">
       <formula>$C5="Removed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Sprint0/03_Product_Backlog.xlsx
+++ b/Sprint0/03_Product_Backlog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Documents\GitHub\Huella_Carbono\Sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16774EB6-4E87-4260-AD42-358FBE44D8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D53B090-DDE1-4180-9B88-155BD1F9E169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D13067E4-98AA-4D02-BD79-AE235663521A}"/>
   </bookViews>
@@ -3037,7 +3037,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3541,7 +3541,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D5" s="53">
         <v>3</v>
